--- a/main/ig/StructureDefinition-tddui-documentreference.xlsx
+++ b/main/ig/StructureDefinition-tddui-documentreference.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2537" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2527" uniqueCount="520">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-13T16:17:44+00:00</t>
+    <t>2024-11-13T16:19:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -281,7 +281,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -337,17 +337,10 @@
     <t>Resource.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>DocumentReference.meta.id</t>
   </si>
   <si>
@@ -505,12 +498,6 @@
     <t>Meta.security</t>
   </si>
   <si>
-    <t>CV</t>
-  </si>
-  <si>
-    <t>CE/CNE/CWE subset one of the sets of component 1-3 or 4-6</t>
-  </si>
-  <si>
     <t>DocumentReference.meta.tag</t>
   </si>
   <si>
@@ -625,6 +612,9 @@
   </si>
   <si>
     <t>DomainResource.contained</t>
+  </si>
+  <si>
+    <t>N/A</t>
   </si>
   <si>
     <t>DocumentReference.extension</t>
@@ -858,9 +848,6 @@
     <t>Derived from a mapping of /ClinicalDocument/code/@code to an Affinity Domain specified coded value to use and coding system. Affinity Domains are encouraged to use the appropriate value for Type of Service, based on the LOINC Type of Service (see Page 53 of the LOINC User's Manual). Must be consistent with /ClinicalDocument/code/@code</t>
   </si>
   <si>
-    <t>CE/CNE/CWE</t>
-  </si>
-  <si>
     <t>DocumentEntry.class</t>
   </si>
   <si>
@@ -877,13 +864,6 @@
     <t>Who or what the document is about. The document can be about a person, (patient or healthcare practitioner), a device (e.g. a machine) or even a group of subjects (such as a document about a herd of farm animals, or a set of patients that share a common exposure).</t>
   </si>
   <si>
-    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ref-1:SHALL have a contained resource if a local reference is provided {reference.startsWith('#').not() or (reference.substring(1).trace('url') in %rootResource.contained.id.trace('ids'))}</t>
-  </si>
-  <si>
     <t>Event.subject</t>
   </si>
   <si>
@@ -1217,13 +1197,6 @@
   </si>
   <si>
     <t>The document or URL of the document along with critical metadata to prove content has integrity.</t>
-  </si>
-  <si>
-    <t>When providing a summary view (for example with Observation.value[x]) Attachment should be represented with a brief display text such as "Signed Procedure Consent".</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-att-1:If the Attachment has data, it SHALL have a contentType {data.empty() or contentType.exists()}</t>
   </si>
   <si>
     <t>Composition.language, 
@@ -1253,9 +1226,6 @@
   </si>
   <si>
     <t>Identifies the type of the data in the attachment and allows a method to be chosen to interpret or render the data. Includes mime type parameters such as charset where appropriate.</t>
-  </si>
-  <si>
-    <t>Note that FHIR strings SHALL NOT exceed 1MB in size</t>
   </si>
   <si>
     <t>Processors of the data need to be able to know how to interpret the data.</t>
@@ -1575,14 +1545,6 @@
     <t>The time period over which the service that is described by the document was provided.</t>
   </si>
   <si>
-    <t>A Period specifies a range of time; the context of use will specify whether the entire range applies (e.g. "the patient was an inpatient of the hospital for this time range") or one value from the range applies (e.g. "give to the patient between these two times").
-Period is not used for a duration (a measure of elapsed time). See [Duration](http://hl7.org/fhir/R4/datatypes.html#Duration).</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-per-1:If present, start SHALL have a lower value than end {start.hasValue().not() or end.hasValue().not() or (start &lt;= end)}</t>
-  </si>
-  <si>
     <t>Composition.event.period</t>
   </si>
   <si>
@@ -1596,9 +1558,6 @@
 @value</t>
   </si>
   <si>
-    <t>DR</t>
-  </si>
-  <si>
     <t>DocumentEntry.serviceStartTime, DocumentEntry.serviceStopTime</t>
   </si>
   <si>
@@ -1609,9 +1568,6 @@
   </si>
   <si>
     <t>The kind of facility where the patient was seen.</t>
-  </si>
-  <si>
-    <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.</t>
   </si>
   <si>
     <t>https://mos.esante.gouv.fr/NOS/JDV_J02-XdsHealthcareFacilityTypeCode-CISIS/FHIR/JDV-J02-XdsHealthcareFacilityTypeCode-CISIS</t>
@@ -2538,11 +2494,11 @@
         <v>93</v>
       </c>
       <c r="AI4" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ4" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AJ4" t="s" s="2">
-        <v>106</v>
-      </c>
       <c r="AK4" t="s" s="2">
         <v>80</v>
       </c>
@@ -2550,7 +2506,7 @@
         <v>80</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="AN4" t="s" s="2">
         <v>80</v>
@@ -2567,10 +2523,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2593,13 +2549,13 @@
         <v>80</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="L5" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="M5" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="L5" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>111</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -2650,7 +2606,7 @@
         <v>80</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>81</v>
@@ -2671,7 +2627,7 @@
         <v>80</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AN5" t="s" s="2">
         <v>80</v>
@@ -2688,14 +2644,14 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
@@ -2714,16 +2670,16 @@
         <v>80</v>
       </c>
       <c r="K6" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="L6" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="M6" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="N6" t="s" s="2">
         <v>117</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="N6" t="s" s="2">
-        <v>119</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2761,19 +2717,19 @@
         <v>80</v>
       </c>
       <c r="AB6" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="AC6" t="s" s="2">
+      <c r="AF6" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="AF6" t="s" s="2">
-        <v>123</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>81</v>
@@ -2782,10 +2738,10 @@
         <v>82</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>80</v>
@@ -2794,7 +2750,7 @@
         <v>80</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="AN6" t="s" s="2">
         <v>80</v>
@@ -2811,10 +2767,10 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -2840,13 +2796,13 @@
         <v>95</v>
       </c>
       <c r="L7" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="M7" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="N7" t="s" s="2">
         <v>126</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="N7" t="s" s="2">
-        <v>128</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2896,7 +2852,7 @@
         <v>80</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>81</v>
@@ -2905,11 +2861,11 @@
         <v>93</v>
       </c>
       <c r="AI7" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AJ7" t="s" s="2">
-        <v>106</v>
-      </c>
       <c r="AK7" t="s" s="2">
         <v>80</v>
       </c>
@@ -2917,7 +2873,7 @@
         <v>80</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="AN7" t="s" s="2">
         <v>80</v>
@@ -2934,10 +2890,10 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -2960,16 +2916,16 @@
         <v>94</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="L8" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="M8" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="N8" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>134</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -3019,7 +2975,7 @@
         <v>80</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>81</v>
@@ -3028,11 +2984,11 @@
         <v>93</v>
       </c>
       <c r="AI8" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ8" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AJ8" t="s" s="2">
-        <v>106</v>
-      </c>
       <c r="AK8" t="s" s="2">
         <v>80</v>
       </c>
@@ -3040,7 +2996,7 @@
         <v>80</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="AN8" t="s" s="2">
         <v>80</v>
@@ -3057,10 +3013,10 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -3083,16 +3039,16 @@
         <v>94</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="L9" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="M9" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="N9" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>140</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -3142,7 +3098,7 @@
         <v>80</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>81</v>
@@ -3151,11 +3107,11 @@
         <v>93</v>
       </c>
       <c r="AI9" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ9" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AJ9" t="s" s="2">
-        <v>106</v>
-      </c>
       <c r="AK9" t="s" s="2">
         <v>80</v>
       </c>
@@ -3163,7 +3119,7 @@
         <v>80</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="AN9" t="s" s="2">
         <v>80</v>
@@ -3180,10 +3136,10 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -3206,16 +3162,16 @@
         <v>94</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="L10" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="M10" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="N10" t="s" s="2">
         <v>144</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>146</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
@@ -3265,7 +3221,7 @@
         <v>80</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>81</v>
@@ -3274,11 +3230,11 @@
         <v>82</v>
       </c>
       <c r="AI10" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ10" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AJ10" t="s" s="2">
-        <v>106</v>
-      </c>
       <c r="AK10" t="s" s="2">
         <v>80</v>
       </c>
@@ -3286,7 +3242,7 @@
         <v>80</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="AN10" t="s" s="2">
         <v>80</v>
@@ -3303,10 +3259,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -3329,16 +3285,16 @@
         <v>94</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="L11" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="M11" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="N11" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>152</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -3364,31 +3320,31 @@
         <v>80</v>
       </c>
       <c r="X11" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="Y11" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="Z11" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="Y11" t="s" s="2">
+      <c r="AA11" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB11" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC11" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD11" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE11" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF11" t="s" s="2">
         <v>154</v>
-      </c>
-      <c r="Z11" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="AA11" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB11" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC11" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD11" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE11" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF11" t="s" s="2">
-        <v>156</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>81</v>
@@ -3397,11 +3353,11 @@
         <v>82</v>
       </c>
       <c r="AI11" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ11" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AJ11" t="s" s="2">
-        <v>106</v>
-      </c>
       <c r="AK11" t="s" s="2">
         <v>80</v>
       </c>
@@ -3409,7 +3365,7 @@
         <v>80</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>157</v>
+        <v>80</v>
       </c>
       <c r="AN11" t="s" s="2">
         <v>80</v>
@@ -3418,7 +3374,7 @@
         <v>80</v>
       </c>
       <c r="AP11" t="s" s="2">
-        <v>158</v>
+        <v>80</v>
       </c>
       <c r="AQ11" t="s" s="2">
         <v>80</v>
@@ -3426,10 +3382,10 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3452,16 +3408,16 @@
         <v>94</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -3487,13 +3443,13 @@
         <v>80</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>80</v>
@@ -3511,7 +3467,7 @@
         <v>80</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>81</v>
@@ -3520,11 +3476,11 @@
         <v>82</v>
       </c>
       <c r="AI12" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ12" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AJ12" t="s" s="2">
-        <v>106</v>
-      </c>
       <c r="AK12" t="s" s="2">
         <v>80</v>
       </c>
@@ -3532,7 +3488,7 @@
         <v>80</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>157</v>
+        <v>80</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>80</v>
@@ -3541,7 +3497,7 @@
         <v>80</v>
       </c>
       <c r="AP12" t="s" s="2">
-        <v>158</v>
+        <v>80</v>
       </c>
       <c r="AQ12" t="s" s="2">
         <v>80</v>
@@ -3549,10 +3505,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3575,16 +3531,16 @@
         <v>94</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3634,7 +3590,7 @@
         <v>80</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>81</v>
@@ -3643,11 +3599,11 @@
         <v>93</v>
       </c>
       <c r="AI13" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AJ13" t="s" s="2">
-        <v>106</v>
-      </c>
       <c r="AK13" t="s" s="2">
         <v>80</v>
       </c>
@@ -3655,7 +3611,7 @@
         <v>80</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>80</v>
@@ -3672,10 +3628,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3698,16 +3654,16 @@
         <v>80</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3733,13 +3689,13 @@
         <v>80</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>80</v>
@@ -3757,7 +3713,7 @@
         <v>80</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>81</v>
@@ -3766,11 +3722,11 @@
         <v>93</v>
       </c>
       <c r="AI14" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AJ14" t="s" s="2">
-        <v>106</v>
-      </c>
       <c r="AK14" t="s" s="2">
         <v>80</v>
       </c>
@@ -3778,7 +3734,7 @@
         <v>80</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>80</v>
@@ -3795,14 +3751,14 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -3821,16 +3777,16 @@
         <v>80</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3880,7 +3836,7 @@
         <v>80</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>81</v>
@@ -3889,11 +3845,11 @@
         <v>93</v>
       </c>
       <c r="AI15" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AJ15" t="s" s="2">
-        <v>106</v>
-      </c>
       <c r="AK15" t="s" s="2">
         <v>80</v>
       </c>
@@ -3901,7 +3857,7 @@
         <v>80</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>80</v>
@@ -3918,14 +3874,14 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3944,16 +3900,16 @@
         <v>80</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -4003,7 +3959,7 @@
         <v>80</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>81</v>
@@ -4024,7 +3980,7 @@
         <v>80</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>107</v>
+        <v>192</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>80</v>
@@ -4041,14 +3997,14 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -4067,16 +4023,16 @@
         <v>80</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="L17" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="N17" t="s" s="2">
         <v>117</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>119</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -4114,19 +4070,19 @@
         <v>80</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>121</v>
+        <v>80</v>
       </c>
       <c r="AD17" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>122</v>
+        <v>80</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>81</v>
@@ -4135,10 +4091,10 @@
         <v>82</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>80</v>
@@ -4147,7 +4103,7 @@
         <v>80</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>107</v>
+        <v>192</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>80</v>
@@ -4164,10 +4120,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4190,13 +4146,13 @@
         <v>80</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -4235,19 +4191,19 @@
         <v>80</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>121</v>
+        <v>80</v>
       </c>
       <c r="AD18" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>122</v>
+        <v>80</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>81</v>
@@ -4256,10 +4212,10 @@
         <v>82</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>80</v>
@@ -4285,10 +4241,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4311,19 +4267,19 @@
         <v>94</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="L19" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="M19" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="N19" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="O19" t="s" s="2">
         <v>205</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>208</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>80</v>
@@ -4372,7 +4328,7 @@
         <v>80</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>81</v>
@@ -4381,39 +4337,39 @@
         <v>93</v>
       </c>
       <c r="AI19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AJ19" t="s" s="2">
-        <v>106</v>
-      </c>
       <c r="AK19" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="AL19" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AM19" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AN19" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="AL19" t="s" s="2">
+      <c r="AO19" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="AM19" t="s" s="2">
+      <c r="AP19" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="AN19" t="s" s="2">
+      <c r="AQ19" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="AO19" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="AP19" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="AQ19" t="s" s="2">
-        <v>215</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4436,13 +4392,13 @@
         <v>94</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4493,7 +4449,7 @@
         <v>80</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>81</v>
@@ -4502,39 +4458,39 @@
         <v>82</v>
       </c>
       <c r="AI20" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AJ20" t="s" s="2">
-        <v>106</v>
-      </c>
       <c r="AK20" t="s" s="2">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="AP20" t="s" s="2">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="AQ20" t="s" s="2">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4557,16 +4513,16 @@
         <v>94</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4577,29 +4533,29 @@
         <v>80</v>
       </c>
       <c r="S21" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="T21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X21" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="Y21" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="Z21" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="T21" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U21" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V21" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W21" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X21" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="Y21" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="Z21" t="s" s="2">
-        <v>229</v>
-      </c>
       <c r="AA21" t="s" s="2">
         <v>80</v>
       </c>
@@ -4616,7 +4572,7 @@
         <v>80</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>93</v>
@@ -4625,39 +4581,39 @@
         <v>93</v>
       </c>
       <c r="AI21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AJ21" t="s" s="2">
-        <v>106</v>
-      </c>
       <c r="AK21" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="AL21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM21" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="AN21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO21" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="AP21" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="AL21" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM21" t="s" s="2">
+      <c r="AQ21" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="AN21" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO21" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="AP21" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="AQ21" t="s" s="2">
-        <v>234</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4680,16 +4636,16 @@
         <v>94</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4715,13 +4671,13 @@
         <v>80</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>80</v>
@@ -4739,7 +4695,7 @@
         <v>80</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>81</v>
@@ -4748,28 +4704,28 @@
         <v>93</v>
       </c>
       <c r="AI22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AJ22" t="s" s="2">
-        <v>106</v>
-      </c>
       <c r="AK22" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="AP22" t="s" s="2">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="AQ22" t="s" s="2">
         <v>80</v>
@@ -4777,10 +4733,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4803,16 +4759,16 @@
         <v>94</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="L23" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="N23" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>248</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4838,11 +4794,11 @@
         <v>80</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="Y23" s="2"/>
       <c r="Z23" t="s" s="2">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>80</v>
@@ -4860,7 +4816,7 @@
         <v>80</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>81</v>
@@ -4869,43 +4825,43 @@
         <v>93</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="AJ23" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="AK23" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="AL23" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="AM23" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="AK23" t="s" s="2">
+      <c r="AN23" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="AL23" t="s" s="2">
+      <c r="AO23" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="AM23" t="s" s="2">
+      <c r="AP23" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="AN23" t="s" s="2">
+      <c r="AQ23" t="s" s="2">
         <v>254</v>
-      </c>
-      <c r="AO23" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="AP23" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="AQ23" t="s" s="2">
-        <v>257</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -4924,16 +4880,16 @@
         <v>94</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4959,11 +4915,11 @@
         <v>80</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="Y24" s="2"/>
       <c r="Z24" t="s" s="2">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>80</v>
@@ -4981,7 +4937,7 @@
         <v>80</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>81</v>
@@ -4990,39 +4946,39 @@
         <v>82</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="AJ24" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="AK24" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL24" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AM24" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="AN24" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="AK24" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL24" t="s" s="2">
+      <c r="AO24" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AP24" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AQ24" t="s" s="2">
         <v>265</v>
-      </c>
-      <c r="AM24" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="AN24" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="AO24" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="AP24" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="AQ24" t="s" s="2">
-        <v>269</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5045,17 +5001,15 @@
         <v>94</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>274</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>80</v>
@@ -5104,7 +5058,7 @@
         <v>80</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>81</v>
@@ -5113,43 +5067,43 @@
         <v>93</v>
       </c>
       <c r="AI25" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AJ25" t="s" s="2">
+      <c r="AK25" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AL25" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="AM25" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="AN25" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="AO25" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="AP25" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="AK25" t="s" s="2">
+      <c r="AQ25" t="s" s="2">
         <v>276</v>
-      </c>
-      <c r="AL25" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="AM25" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="AO25" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="AP25" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="AQ25" t="s" s="2">
-        <v>282</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -5168,16 +5122,16 @@
         <v>94</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -5227,7 +5181,7 @@
         <v>80</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>81</v>
@@ -5236,25 +5190,25 @@
         <v>93</v>
       </c>
       <c r="AI26" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AJ26" t="s" s="2">
-        <v>106</v>
-      </c>
       <c r="AK26" t="s" s="2">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="AP26" t="s" s="2">
         <v>80</v>
@@ -5265,10 +5219,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5291,16 +5245,16 @@
         <v>94</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -5350,7 +5304,7 @@
         <v>80</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>81</v>
@@ -5359,39 +5313,39 @@
         <v>82</v>
       </c>
       <c r="AI27" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AJ27" t="s" s="2">
-        <v>275</v>
-      </c>
       <c r="AK27" t="s" s="2">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP27" t="s" s="2">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="AQ27" t="s" s="2">
-        <v>302</v>
+        <v>296</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5414,16 +5368,16 @@
         <v>80</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5473,7 +5427,7 @@
         <v>80</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>81</v>
@@ -5482,39 +5436,39 @@
         <v>93</v>
       </c>
       <c r="AI28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AJ28" t="s" s="2">
-        <v>275</v>
-      </c>
       <c r="AK28" t="s" s="2">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="AP28" t="s" s="2">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="AQ28" t="s" s="2">
-        <v>313</v>
+        <v>307</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5537,16 +5491,16 @@
         <v>80</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5596,7 +5550,7 @@
         <v>80</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>81</v>
@@ -5605,19 +5559,19 @@
         <v>93</v>
       </c>
       <c r="AI29" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AJ29" t="s" s="2">
-        <v>275</v>
-      </c>
       <c r="AK29" t="s" s="2">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>80</v>
@@ -5634,10 +5588,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5660,16 +5614,16 @@
         <v>94</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5719,7 +5673,7 @@
         <v>80</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>81</v>
@@ -5728,19 +5682,19 @@
         <v>82</v>
       </c>
       <c r="AI30" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AJ30" t="s" s="2">
-        <v>106</v>
-      </c>
       <c r="AK30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>80</v>
@@ -5752,15 +5706,15 @@
         <v>80</v>
       </c>
       <c r="AQ30" t="s" s="2">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5783,13 +5737,13 @@
         <v>80</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="L31" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="M31" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>111</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5840,7 +5794,7 @@
         <v>80</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>81</v>
@@ -5861,7 +5815,7 @@
         <v>80</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>80</v>
@@ -5878,14 +5832,14 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -5904,16 +5858,16 @@
         <v>80</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="L32" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>117</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>119</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5951,19 +5905,19 @@
         <v>80</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="AC32" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE32" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF32" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="AD32" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE32" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="AF32" t="s" s="2">
-        <v>123</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>81</v>
@@ -5972,10 +5926,10 @@
         <v>82</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>80</v>
@@ -5984,7 +5938,7 @@
         <v>80</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>80</v>
@@ -6001,14 +5955,14 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -6027,19 +5981,19 @@
         <v>94</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>80</v>
@@ -6088,7 +6042,7 @@
         <v>80</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>81</v>
@@ -6097,10 +6051,10 @@
         <v>82</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>80</v>
@@ -6109,7 +6063,7 @@
         <v>80</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>107</v>
+        <v>192</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>80</v>
@@ -6126,10 +6080,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6152,16 +6106,16 @@
         <v>94</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -6187,13 +6141,13 @@
         <v>80</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>80</v>
@@ -6211,7 +6165,7 @@
         <v>80</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>93</v>
@@ -6220,19 +6174,19 @@
         <v>93</v>
       </c>
       <c r="AI34" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AJ34" t="s" s="2">
-        <v>106</v>
-      </c>
       <c r="AK34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>80</v>
@@ -6244,15 +6198,15 @@
         <v>80</v>
       </c>
       <c r="AQ34" t="s" s="2">
-        <v>345</v>
+        <v>339</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6275,17 +6229,15 @@
         <v>94</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>274</v>
-      </c>
+        <v>343</v>
+      </c>
+      <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>80</v>
@@ -6334,7 +6286,7 @@
         <v>80</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>93</v>
@@ -6343,19 +6295,19 @@
         <v>93</v>
       </c>
       <c r="AI35" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AJ35" t="s" s="2">
-        <v>275</v>
-      </c>
       <c r="AK35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>80</v>
@@ -6367,15 +6319,15 @@
         <v>80</v>
       </c>
       <c r="AQ35" t="s" s="2">
-        <v>352</v>
+        <v>346</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6398,19 +6350,19 @@
         <v>94</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>80</v>
@@ -6459,7 +6411,7 @@
         <v>80</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>81</v>
@@ -6468,11 +6420,11 @@
         <v>93</v>
       </c>
       <c r="AI36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AJ36" t="s" s="2">
-        <v>106</v>
-      </c>
       <c r="AK36" t="s" s="2">
         <v>80</v>
       </c>
@@ -6480,7 +6432,7 @@
         <v>80</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>80</v>
@@ -6489,18 +6441,18 @@
         <v>80</v>
       </c>
       <c r="AP36" t="s" s="2">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="AQ36" t="s" s="2">
-        <v>360</v>
+        <v>354</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6523,19 +6475,19 @@
         <v>94</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>80</v>
@@ -6560,14 +6512,14 @@
         <v>80</v>
       </c>
       <c r="X37" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="Y37" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="Z37" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="Y37" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="Z37" t="s" s="2">
-        <v>155</v>
-      </c>
       <c r="AA37" t="s" s="2">
         <v>80</v>
       </c>
@@ -6584,7 +6536,7 @@
         <v>80</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>81</v>
@@ -6593,39 +6545,39 @@
         <v>82</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP37" t="s" s="2">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="AQ37" t="s" s="2">
-        <v>371</v>
+        <v>365</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6648,13 +6600,13 @@
         <v>94</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6705,7 +6657,7 @@
         <v>80</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>93</v>
@@ -6714,19 +6666,19 @@
         <v>82</v>
       </c>
       <c r="AI38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AJ38" t="s" s="2">
-        <v>106</v>
-      </c>
       <c r="AK38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>80</v>
@@ -6743,10 +6695,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6769,13 +6721,13 @@
         <v>80</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="L39" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="M39" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>111</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6826,7 +6778,7 @@
         <v>80</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>81</v>
@@ -6847,7 +6799,7 @@
         <v>80</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>80</v>
@@ -6864,14 +6816,14 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -6890,16 +6842,16 @@
         <v>80</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="M40" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="N40" t="s" s="2">
         <v>117</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>119</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6937,19 +6889,19 @@
         <v>80</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="AC40" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE40" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF40" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="AD40" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE40" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="AF40" t="s" s="2">
-        <v>123</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>81</v>
@@ -6958,10 +6910,10 @@
         <v>82</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>80</v>
@@ -6970,7 +6922,7 @@
         <v>80</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>80</v>
@@ -6987,14 +6939,14 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -7013,19 +6965,19 @@
         <v>94</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>80</v>
@@ -7074,7 +7026,7 @@
         <v>80</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>81</v>
@@ -7083,10 +7035,10 @@
         <v>82</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>80</v>
@@ -7095,7 +7047,7 @@
         <v>80</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>107</v>
+        <v>192</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>80</v>
@@ -7112,10 +7064,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7138,17 +7090,15 @@
         <v>94</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>384</v>
-      </c>
+        <v>377</v>
+      </c>
+      <c r="N42" s="2"/>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>80</v>
@@ -7197,7 +7147,7 @@
         <v>80</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>93</v>
@@ -7206,39 +7156,39 @@
         <v>93</v>
       </c>
       <c r="AI42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AJ42" t="s" s="2">
-        <v>385</v>
-      </c>
       <c r="AK42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP42" t="s" s="2">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="AQ42" t="s" s="2">
-        <v>389</v>
+        <v>381</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7261,13 +7211,13 @@
         <v>80</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="M43" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>111</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -7318,7 +7268,7 @@
         <v>80</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>81</v>
@@ -7339,7 +7289,7 @@
         <v>80</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>80</v>
@@ -7356,14 +7306,14 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -7382,16 +7332,16 @@
         <v>80</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="L44" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="M44" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="N44" t="s" s="2">
         <v>117</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>119</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7429,19 +7379,19 @@
         <v>80</v>
       </c>
       <c r="AB44" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE44" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="AC44" t="s" s="2">
+      <c r="AF44" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="AD44" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE44" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="AF44" t="s" s="2">
-        <v>123</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>81</v>
@@ -7450,10 +7400,10 @@
         <v>82</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>80</v>
@@ -7462,7 +7412,7 @@
         <v>80</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>80</v>
@@ -7479,10 +7429,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7505,19 +7455,17 @@
         <v>94</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>395</v>
-      </c>
+        <v>386</v>
+      </c>
+      <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>80</v>
@@ -7530,7 +7478,7 @@
         <v>80</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="U45" t="s" s="2">
         <v>80</v>
@@ -7542,13 +7490,13 @@
         <v>80</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>80</v>
@@ -7566,7 +7514,7 @@
         <v>80</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>81</v>
@@ -7575,11 +7523,11 @@
         <v>93</v>
       </c>
       <c r="AI45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AJ45" t="s" s="2">
-        <v>106</v>
-      </c>
       <c r="AK45" t="s" s="2">
         <v>80</v>
       </c>
@@ -7587,7 +7535,7 @@
         <v>80</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>80</v>
@@ -7596,7 +7544,7 @@
         <v>80</v>
       </c>
       <c r="AP45" t="s" s="2">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="AQ45" t="s" s="2">
         <v>80</v>
@@ -7604,10 +7552,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7630,19 +7578,17 @@
         <v>94</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>395</v>
-      </c>
+        <v>396</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>80</v>
@@ -7655,7 +7601,7 @@
         <v>80</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="U46" t="s" s="2">
         <v>80</v>
@@ -7667,13 +7613,13 @@
         <v>80</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>80</v>
@@ -7691,7 +7637,7 @@
         <v>80</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>81</v>
@@ -7700,11 +7646,11 @@
         <v>93</v>
       </c>
       <c r="AI46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AJ46" t="s" s="2">
-        <v>106</v>
-      </c>
       <c r="AK46" t="s" s="2">
         <v>80</v>
       </c>
@@ -7712,7 +7658,7 @@
         <v>80</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>80</v>
@@ -7729,10 +7675,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7755,19 +7701,19 @@
         <v>80</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>80</v>
@@ -7816,7 +7762,7 @@
         <v>80</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>81</v>
@@ -7825,11 +7771,11 @@
         <v>93</v>
       </c>
       <c r="AI47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AJ47" t="s" s="2">
-        <v>106</v>
-      </c>
       <c r="AK47" t="s" s="2">
         <v>80</v>
       </c>
@@ -7837,7 +7783,7 @@
         <v>80</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>80</v>
@@ -7846,7 +7792,7 @@
         <v>80</v>
       </c>
       <c r="AP47" t="s" s="2">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="AQ47" t="s" s="2">
         <v>80</v>
@@ -7854,10 +7800,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7880,19 +7826,19 @@
         <v>94</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>80</v>
@@ -7905,7 +7851,7 @@
         <v>80</v>
       </c>
       <c r="T48" t="s" s="2">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="U48" t="s" s="2">
         <v>80</v>
@@ -7941,7 +7887,7 @@
         <v>80</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>81</v>
@@ -7950,11 +7896,11 @@
         <v>93</v>
       </c>
       <c r="AI48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AJ48" t="s" s="2">
-        <v>106</v>
-      </c>
       <c r="AK48" t="s" s="2">
         <v>80</v>
       </c>
@@ -7962,7 +7908,7 @@
         <v>80</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>80</v>
@@ -7971,7 +7917,7 @@
         <v>80</v>
       </c>
       <c r="AP48" t="s" s="2">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="AQ48" t="s" s="2">
         <v>80</v>
@@ -7979,10 +7925,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8005,19 +7951,19 @@
         <v>94</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>80</v>
@@ -8066,7 +8012,7 @@
         <v>80</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>81</v>
@@ -8075,11 +8021,11 @@
         <v>93</v>
       </c>
       <c r="AI49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AJ49" t="s" s="2">
-        <v>106</v>
-      </c>
       <c r="AK49" t="s" s="2">
         <v>80</v>
       </c>
@@ -8087,7 +8033,7 @@
         <v>80</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>80</v>
@@ -8104,10 +8050,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8130,19 +8076,19 @@
         <v>94</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>80</v>
@@ -8191,7 +8137,7 @@
         <v>80</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>81</v>
@@ -8200,11 +8146,11 @@
         <v>93</v>
       </c>
       <c r="AI50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AJ50" t="s" s="2">
-        <v>106</v>
-      </c>
       <c r="AK50" t="s" s="2">
         <v>80</v>
       </c>
@@ -8212,7 +8158,7 @@
         <v>80</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>80</v>
@@ -8229,10 +8175,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8255,19 +8201,17 @@
         <v>94</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>395</v>
-      </c>
+        <v>437</v>
+      </c>
+      <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>80</v>
@@ -8280,7 +8224,7 @@
         <v>80</v>
       </c>
       <c r="T51" t="s" s="2">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="U51" t="s" s="2">
         <v>80</v>
@@ -8316,7 +8260,7 @@
         <v>80</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>81</v>
@@ -8325,11 +8269,11 @@
         <v>93</v>
       </c>
       <c r="AI51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AJ51" t="s" s="2">
-        <v>106</v>
-      </c>
       <c r="AK51" t="s" s="2">
         <v>80</v>
       </c>
@@ -8337,7 +8281,7 @@
         <v>80</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>80</v>
@@ -8354,10 +8298,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8380,17 +8324,17 @@
         <v>94</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>80</v>
@@ -8439,7 +8383,7 @@
         <v>80</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>81</v>
@@ -8448,11 +8392,11 @@
         <v>93</v>
       </c>
       <c r="AI52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AJ52" t="s" s="2">
-        <v>106</v>
-      </c>
       <c r="AK52" t="s" s="2">
         <v>80</v>
       </c>
@@ -8460,7 +8404,7 @@
         <v>80</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>80</v>
@@ -8477,10 +8421,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8503,16 +8447,16 @@
         <v>94</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -8538,11 +8482,11 @@
         <v>80</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="Y53" s="2"/>
       <c r="Z53" t="s" s="2">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>80</v>
@@ -8560,7 +8504,7 @@
         <v>80</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>81</v>
@@ -8569,39 +8513,39 @@
         <v>93</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP53" t="s" s="2">
-        <v>158</v>
+        <v>80</v>
       </c>
       <c r="AQ53" t="s" s="2">
-        <v>465</v>
+        <v>456</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8624,16 +8568,16 @@
         <v>94</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -8683,7 +8627,7 @@
         <v>80</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>81</v>
@@ -8692,11 +8636,11 @@
         <v>93</v>
       </c>
       <c r="AI54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AJ54" t="s" s="2">
-        <v>106</v>
-      </c>
       <c r="AK54" t="s" s="2">
         <v>80</v>
       </c>
@@ -8704,7 +8648,7 @@
         <v>80</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>80</v>
@@ -8721,10 +8665,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8747,13 +8691,13 @@
         <v>80</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="M55" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>111</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8804,7 +8748,7 @@
         <v>80</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>81</v>
@@ -8825,7 +8769,7 @@
         <v>80</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>80</v>
@@ -8842,14 +8786,14 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -8868,16 +8812,16 @@
         <v>80</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="M56" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="N56" t="s" s="2">
         <v>117</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>119</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8915,19 +8859,19 @@
         <v>80</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="AC56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF56" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="AD56" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE56" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="AF56" t="s" s="2">
-        <v>123</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>81</v>
@@ -8936,10 +8880,10 @@
         <v>82</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>80</v>
@@ -8948,7 +8892,7 @@
         <v>80</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>80</v>
@@ -8965,14 +8909,14 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -8991,19 +8935,19 @@
         <v>94</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>80</v>
@@ -9052,7 +8996,7 @@
         <v>80</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>81</v>
@@ -9061,10 +9005,10 @@
         <v>82</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>80</v>
@@ -9073,7 +9017,7 @@
         <v>80</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>107</v>
+        <v>192</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>80</v>
@@ -9090,10 +9034,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9116,17 +9060,15 @@
         <v>80</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>274</v>
-      </c>
+        <v>468</v>
+      </c>
+      <c r="N58" s="2"/>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>80</v>
@@ -9175,7 +9117,7 @@
         <v>80</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>81</v>
@@ -9184,25 +9126,25 @@
         <v>82</v>
       </c>
       <c r="AI58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AJ58" t="s" s="2">
-        <v>275</v>
-      </c>
       <c r="AK58" t="s" s="2">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="AP58" t="s" s="2">
         <v>80</v>
@@ -9213,10 +9155,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9239,16 +9181,16 @@
         <v>80</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>485</v>
+        <v>476</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -9274,13 +9216,13 @@
         <v>80</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>80</v>
@@ -9298,7 +9240,7 @@
         <v>80</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>81</v>
@@ -9307,19 +9249,19 @@
         <v>82</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>80</v>
@@ -9328,18 +9270,18 @@
         <v>80</v>
       </c>
       <c r="AP59" t="s" s="2">
-        <v>268</v>
+        <v>80</v>
       </c>
       <c r="AQ59" t="s" s="2">
-        <v>491</v>
+        <v>482</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9362,17 +9304,15 @@
         <v>94</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>496</v>
-      </c>
+        <v>486</v>
+      </c>
+      <c r="N60" s="2"/>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>80</v>
@@ -9421,7 +9361,7 @@
         <v>80</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>81</v>
@@ -9430,39 +9370,39 @@
         <v>93</v>
       </c>
       <c r="AI60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AJ60" t="s" s="2">
-        <v>497</v>
-      </c>
       <c r="AK60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>498</v>
+        <v>487</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>499</v>
+        <v>488</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>500</v>
+        <v>489</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP60" t="s" s="2">
-        <v>501</v>
+        <v>80</v>
       </c>
       <c r="AQ60" t="s" s="2">
-        <v>502</v>
+        <v>490</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>503</v>
+        <v>491</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>503</v>
+        <v>491</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9485,17 +9425,15 @@
         <v>80</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>504</v>
+        <v>492</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>506</v>
-      </c>
+        <v>493</v>
+      </c>
+      <c r="N61" s="2"/>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>80</v>
@@ -9520,11 +9458,11 @@
         <v>80</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="Y61" s="2"/>
       <c r="Z61" t="s" s="2">
-        <v>507</v>
+        <v>494</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>80</v>
@@ -9542,7 +9480,7 @@
         <v>80</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>503</v>
+        <v>491</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>81</v>
@@ -9551,39 +9489,39 @@
         <v>93</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>508</v>
+        <v>495</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>509</v>
+        <v>496</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>510</v>
+        <v>497</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>511</v>
+        <v>498</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP61" t="s" s="2">
-        <v>268</v>
+        <v>80</v>
       </c>
       <c r="AQ61" t="s" s="2">
-        <v>512</v>
+        <v>499</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>513</v>
+        <v>500</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>513</v>
+        <v>500</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9606,19 +9544,19 @@
         <v>80</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>515</v>
+        <v>502</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>516</v>
+        <v>503</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>517</v>
+        <v>504</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>80</v>
@@ -9643,11 +9581,11 @@
         <v>80</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="Y62" s="2"/>
       <c r="Z62" t="s" s="2">
-        <v>518</v>
+        <v>505</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>80</v>
@@ -9665,7 +9603,7 @@
         <v>80</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>513</v>
+        <v>500</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>81</v>
@@ -9674,39 +9612,39 @@
         <v>93</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>508</v>
+        <v>495</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>509</v>
+        <v>496</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>510</v>
+        <v>497</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>509</v>
+        <v>496</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP62" t="s" s="2">
-        <v>268</v>
+        <v>80</v>
       </c>
       <c r="AQ62" t="s" s="2">
-        <v>519</v>
+        <v>506</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>520</v>
+        <v>507</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>520</v>
+        <v>507</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9729,17 +9667,15 @@
         <v>80</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>521</v>
+        <v>508</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>274</v>
-      </c>
+        <v>509</v>
+      </c>
+      <c r="N63" s="2"/>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>80</v>
@@ -9788,7 +9724,7 @@
         <v>80</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>520</v>
+        <v>507</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>81</v>
@@ -9797,22 +9733,22 @@
         <v>93</v>
       </c>
       <c r="AI63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AJ63" t="s" s="2">
-        <v>275</v>
-      </c>
       <c r="AK63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>80</v>
@@ -9821,15 +9757,15 @@
         <v>80</v>
       </c>
       <c r="AQ63" t="s" s="2">
-        <v>523</v>
+        <v>510</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>524</v>
+        <v>511</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>524</v>
+        <v>511</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9852,16 +9788,16 @@
         <v>80</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>525</v>
+        <v>512</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>526</v>
+        <v>513</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>527</v>
+        <v>514</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>528</v>
+        <v>515</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -9911,7 +9847,7 @@
         <v>80</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>524</v>
+        <v>511</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>81</v>
@@ -9920,22 +9856,22 @@
         <v>82</v>
       </c>
       <c r="AI64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AJ64" t="s" s="2">
-        <v>275</v>
-      </c>
       <c r="AK64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>529</v>
+        <v>516</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>530</v>
+        <v>517</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>531</v>
+        <v>518</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>80</v>
@@ -9944,7 +9880,7 @@
         <v>80</v>
       </c>
       <c r="AQ64" t="s" s="2">
-        <v>532</v>
+        <v>519</v>
       </c>
     </row>
   </sheetData>

--- a/main/ig/StructureDefinition-tddui-documentreference.xlsx
+++ b/main/ig/StructureDefinition-tddui-documentreference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-13T16:19:43+00:00</t>
+    <t>2024-11-13T16:25:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-documentreference.xlsx
+++ b/main/ig/StructureDefinition-tddui-documentreference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-13T16:25:20+00:00</t>
+    <t>2024-11-13T16:33:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-documentreference.xlsx
+++ b/main/ig/StructureDefinition-tddui-documentreference.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>1.1.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-13T16:33:20+00:00</t>
+    <t>2024-11-13T21:45:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-documentreference.xlsx
+++ b/main/ig/StructureDefinition-tddui-documentreference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-13T21:45:33+00:00</t>
+    <t>2024-11-13T21:46:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-documentreference.xlsx
+++ b/main/ig/StructureDefinition-tddui-documentreference.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2527" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2537" uniqueCount="533">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-13T21:46:03+00:00</t>
+    <t>2024-11-13T21:48:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -281,7 +281,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
+dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -337,10 +337,17 @@
     <t>Resource.meta</t>
   </si>
   <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
+    <t>N/A</t>
+  </si>
+  <si>
     <t>DocumentReference.meta.id</t>
   </si>
   <si>
@@ -498,6 +505,12 @@
     <t>Meta.security</t>
   </si>
   <si>
+    <t>CV</t>
+  </si>
+  <si>
+    <t>CE/CNE/CWE subset one of the sets of component 1-3 or 4-6</t>
+  </si>
+  <si>
     <t>DocumentReference.meta.tag</t>
   </si>
   <si>
@@ -612,9 +625,6 @@
   </si>
   <si>
     <t>DomainResource.contained</t>
-  </si>
-  <si>
-    <t>N/A</t>
   </si>
   <si>
     <t>DocumentReference.extension</t>
@@ -848,6 +858,9 @@
     <t>Derived from a mapping of /ClinicalDocument/code/@code to an Affinity Domain specified coded value to use and coding system. Affinity Domains are encouraged to use the appropriate value for Type of Service, based on the LOINC Type of Service (see Page 53 of the LOINC User's Manual). Must be consistent with /ClinicalDocument/code/@code</t>
   </si>
   <si>
+    <t>CE/CNE/CWE</t>
+  </si>
+  <si>
     <t>DocumentEntry.class</t>
   </si>
   <si>
@@ -864,6 +877,13 @@
     <t>Who or what the document is about. The document can be about a person, (patient or healthcare practitioner), a device (e.g. a machine) or even a group of subjects (such as a document about a herd of farm animals, or a set of patients that share a common exposure).</t>
   </si>
   <si>
+    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ref-1:SHALL have a contained resource if a local reference is provided {reference.startsWith('#').not() or (reference.substring(1).trace('url') in %rootResource.contained.id.trace('ids'))}</t>
+  </si>
+  <si>
     <t>Event.subject</t>
   </si>
   <si>
@@ -1197,6 +1217,13 @@
   </si>
   <si>
     <t>The document or URL of the document along with critical metadata to prove content has integrity.</t>
+  </si>
+  <si>
+    <t>When providing a summary view (for example with Observation.value[x]) Attachment should be represented with a brief display text such as "Signed Procedure Consent".</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+att-1:If the Attachment has data, it SHALL have a contentType {data.empty() or contentType.exists()}</t>
   </si>
   <si>
     <t>Composition.language, 
@@ -1226,6 +1253,9 @@
   </si>
   <si>
     <t>Identifies the type of the data in the attachment and allows a method to be chosen to interpret or render the data. Includes mime type parameters such as charset where appropriate.</t>
+  </si>
+  <si>
+    <t>Note that FHIR strings SHALL NOT exceed 1MB in size</t>
   </si>
   <si>
     <t>Processors of the data need to be able to know how to interpret the data.</t>
@@ -1545,6 +1575,14 @@
     <t>The time period over which the service that is described by the document was provided.</t>
   </si>
   <si>
+    <t>A Period specifies a range of time; the context of use will specify whether the entire range applies (e.g. "the patient was an inpatient of the hospital for this time range") or one value from the range applies (e.g. "give to the patient between these two times").
+Period is not used for a duration (a measure of elapsed time). See [Duration](http://hl7.org/fhir/R4/datatypes.html#Duration).</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+per-1:If present, start SHALL have a lower value than end {start.hasValue().not() or end.hasValue().not() or (start &lt;= end)}</t>
+  </si>
+  <si>
     <t>Composition.event.period</t>
   </si>
   <si>
@@ -1558,6 +1596,9 @@
 @value</t>
   </si>
   <si>
+    <t>DR</t>
+  </si>
+  <si>
     <t>DocumentEntry.serviceStartTime, DocumentEntry.serviceStopTime</t>
   </si>
   <si>
@@ -1568,6 +1609,9 @@
   </si>
   <si>
     <t>The kind of facility where the patient was seen.</t>
+  </si>
+  <si>
+    <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.</t>
   </si>
   <si>
     <t>https://mos.esante.gouv.fr/NOS/JDV_J02-XdsHealthcareFacilityTypeCode-CISIS/FHIR/JDV-J02-XdsHealthcareFacilityTypeCode-CISIS</t>
@@ -2494,10 +2538,10 @@
         <v>93</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>80</v>
@@ -2506,7 +2550,7 @@
         <v>80</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>80</v>
+        <v>107</v>
       </c>
       <c r="AN4" t="s" s="2">
         <v>80</v>
@@ -2523,10 +2567,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2549,13 +2593,13 @@
         <v>80</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -2606,7 +2650,7 @@
         <v>80</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>81</v>
@@ -2627,7 +2671,7 @@
         <v>80</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AN5" t="s" s="2">
         <v>80</v>
@@ -2644,14 +2688,14 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
@@ -2670,16 +2714,16 @@
         <v>80</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2717,19 +2761,19 @@
         <v>80</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="AD6" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>81</v>
@@ -2738,10 +2782,10 @@
         <v>82</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>80</v>
@@ -2750,7 +2794,7 @@
         <v>80</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="AN6" t="s" s="2">
         <v>80</v>
@@ -2767,10 +2811,10 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -2796,13 +2840,13 @@
         <v>95</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2852,7 +2896,7 @@
         <v>80</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>81</v>
@@ -2861,10 +2905,10 @@
         <v>93</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>80</v>
@@ -2873,7 +2917,7 @@
         <v>80</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="AN7" t="s" s="2">
         <v>80</v>
@@ -2890,10 +2934,10 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -2916,16 +2960,16 @@
         <v>94</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2975,7 +3019,7 @@
         <v>80</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>81</v>
@@ -2984,10 +3028,10 @@
         <v>93</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>80</v>
@@ -2996,7 +3040,7 @@
         <v>80</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="AN8" t="s" s="2">
         <v>80</v>
@@ -3013,10 +3057,10 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -3039,16 +3083,16 @@
         <v>94</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -3098,7 +3142,7 @@
         <v>80</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>81</v>
@@ -3107,10 +3151,10 @@
         <v>93</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>80</v>
@@ -3119,7 +3163,7 @@
         <v>80</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="AN9" t="s" s="2">
         <v>80</v>
@@ -3136,10 +3180,10 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -3162,16 +3206,16 @@
         <v>94</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
@@ -3221,7 +3265,7 @@
         <v>80</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>81</v>
@@ -3230,10 +3274,10 @@
         <v>82</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>80</v>
@@ -3242,7 +3286,7 @@
         <v>80</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="AN10" t="s" s="2">
         <v>80</v>
@@ -3259,10 +3303,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -3285,16 +3329,16 @@
         <v>94</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -3320,13 +3364,13 @@
         <v>80</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AA11" t="s" s="2">
         <v>80</v>
@@ -3344,7 +3388,7 @@
         <v>80</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>81</v>
@@ -3353,10 +3397,10 @@
         <v>82</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>80</v>
@@ -3365,7 +3409,7 @@
         <v>80</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>80</v>
+        <v>157</v>
       </c>
       <c r="AN11" t="s" s="2">
         <v>80</v>
@@ -3374,7 +3418,7 @@
         <v>80</v>
       </c>
       <c r="AP11" t="s" s="2">
-        <v>80</v>
+        <v>158</v>
       </c>
       <c r="AQ11" t="s" s="2">
         <v>80</v>
@@ -3382,10 +3426,10 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3408,16 +3452,16 @@
         <v>94</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -3443,13 +3487,13 @@
         <v>80</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>80</v>
@@ -3467,7 +3511,7 @@
         <v>80</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>81</v>
@@ -3476,10 +3520,10 @@
         <v>82</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>80</v>
@@ -3488,7 +3532,7 @@
         <v>80</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>80</v>
+        <v>157</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>80</v>
@@ -3497,7 +3541,7 @@
         <v>80</v>
       </c>
       <c r="AP12" t="s" s="2">
-        <v>80</v>
+        <v>158</v>
       </c>
       <c r="AQ12" t="s" s="2">
         <v>80</v>
@@ -3505,10 +3549,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3531,16 +3575,16 @@
         <v>94</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3590,7 +3634,7 @@
         <v>80</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>81</v>
@@ -3599,10 +3643,10 @@
         <v>93</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>80</v>
@@ -3611,7 +3655,7 @@
         <v>80</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>80</v>
@@ -3628,10 +3672,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3654,16 +3698,16 @@
         <v>80</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3689,13 +3733,13 @@
         <v>80</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>80</v>
@@ -3713,7 +3757,7 @@
         <v>80</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>81</v>
@@ -3722,10 +3766,10 @@
         <v>93</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>80</v>
@@ -3734,7 +3778,7 @@
         <v>80</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>80</v>
@@ -3751,14 +3795,14 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -3777,16 +3821,16 @@
         <v>80</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3836,7 +3880,7 @@
         <v>80</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>81</v>
@@ -3845,10 +3889,10 @@
         <v>93</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>80</v>
@@ -3857,7 +3901,7 @@
         <v>80</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>80</v>
@@ -3874,14 +3918,14 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3900,16 +3944,16 @@
         <v>80</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3959,7 +4003,7 @@
         <v>80</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>81</v>
@@ -3980,7 +4024,7 @@
         <v>80</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>192</v>
+        <v>107</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>80</v>
@@ -3997,14 +4041,14 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -4023,16 +4067,16 @@
         <v>80</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -4070,19 +4114,19 @@
         <v>80</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>80</v>
+        <v>121</v>
       </c>
       <c r="AD17" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>81</v>
@@ -4091,10 +4135,10 @@
         <v>82</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>80</v>
@@ -4103,7 +4147,7 @@
         <v>80</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>192</v>
+        <v>107</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>80</v>
@@ -4120,10 +4164,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4146,13 +4190,13 @@
         <v>80</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -4191,19 +4235,19 @@
         <v>80</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>80</v>
+        <v>121</v>
       </c>
       <c r="AD18" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>81</v>
@@ -4212,10 +4256,10 @@
         <v>82</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>80</v>
@@ -4241,10 +4285,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4267,19 +4311,19 @@
         <v>94</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>80</v>
@@ -4328,7 +4372,7 @@
         <v>80</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>81</v>
@@ -4337,39 +4381,39 @@
         <v>93</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="AP19" t="s" s="2">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="AQ19" t="s" s="2">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4392,13 +4436,13 @@
         <v>94</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4449,7 +4493,7 @@
         <v>80</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>81</v>
@@ -4458,39 +4502,39 @@
         <v>82</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="AP20" t="s" s="2">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="AQ20" t="s" s="2">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4513,16 +4557,16 @@
         <v>94</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4533,7 +4577,7 @@
         <v>80</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="T21" t="s" s="2">
         <v>80</v>
@@ -4548,13 +4592,13 @@
         <v>80</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>80</v>
@@ -4572,7 +4616,7 @@
         <v>80</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>93</v>
@@ -4581,39 +4625,39 @@
         <v>93</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="AP21" t="s" s="2">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="AQ21" t="s" s="2">
-        <v>231</v>
+        <v>234</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4636,16 +4680,16 @@
         <v>94</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4671,13 +4715,13 @@
         <v>80</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>80</v>
@@ -4695,7 +4739,7 @@
         <v>80</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>81</v>
@@ -4704,28 +4748,28 @@
         <v>93</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="AP22" t="s" s="2">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="AQ22" t="s" s="2">
         <v>80</v>
@@ -4733,10 +4777,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4759,16 +4803,16 @@
         <v>94</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4794,11 +4838,11 @@
         <v>80</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="Y23" s="2"/>
       <c r="Z23" t="s" s="2">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>80</v>
@@ -4816,7 +4860,7 @@
         <v>80</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>81</v>
@@ -4825,43 +4869,43 @@
         <v>93</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="AP23" t="s" s="2">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="AQ23" t="s" s="2">
-        <v>254</v>
+        <v>257</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -4880,16 +4924,16 @@
         <v>94</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4915,11 +4959,11 @@
         <v>80</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="Y24" s="2"/>
       <c r="Z24" t="s" s="2">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>80</v>
@@ -4937,7 +4981,7 @@
         <v>80</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>81</v>
@@ -4946,39 +4990,39 @@
         <v>82</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="AP24" t="s" s="2">
-        <v>80</v>
+        <v>268</v>
       </c>
       <c r="AQ24" t="s" s="2">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5001,15 +5045,17 @@
         <v>94</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="N25" s="2"/>
+        <v>273</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>274</v>
+      </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>80</v>
@@ -5058,7 +5104,7 @@
         <v>80</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>81</v>
@@ -5067,43 +5113,43 @@
         <v>93</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>105</v>
+        <v>275</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="AP25" t="s" s="2">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="AQ25" t="s" s="2">
-        <v>276</v>
+        <v>282</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -5122,16 +5168,16 @@
         <v>94</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -5181,7 +5227,7 @@
         <v>80</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>81</v>
@@ -5190,25 +5236,25 @@
         <v>93</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="AP26" t="s" s="2">
         <v>80</v>
@@ -5219,10 +5265,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5245,16 +5291,16 @@
         <v>94</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -5304,7 +5350,7 @@
         <v>80</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>81</v>
@@ -5313,39 +5359,39 @@
         <v>82</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>105</v>
+        <v>275</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP27" t="s" s="2">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="AQ27" t="s" s="2">
-        <v>296</v>
+        <v>302</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5368,16 +5414,16 @@
         <v>80</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5427,7 +5473,7 @@
         <v>80</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>81</v>
@@ -5436,39 +5482,39 @@
         <v>93</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>105</v>
+        <v>275</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="AP28" t="s" s="2">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="AQ28" t="s" s="2">
-        <v>307</v>
+        <v>313</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5491,16 +5537,16 @@
         <v>80</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5550,7 +5596,7 @@
         <v>80</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>81</v>
@@ -5559,19 +5605,19 @@
         <v>93</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>105</v>
+        <v>275</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>80</v>
@@ -5588,10 +5634,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5614,16 +5660,16 @@
         <v>94</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5673,7 +5719,7 @@
         <v>80</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>81</v>
@@ -5682,19 +5728,19 @@
         <v>82</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>80</v>
@@ -5706,15 +5752,15 @@
         <v>80</v>
       </c>
       <c r="AQ30" t="s" s="2">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5737,13 +5783,13 @@
         <v>80</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5794,7 +5840,7 @@
         <v>80</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>81</v>
@@ -5815,7 +5861,7 @@
         <v>80</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>80</v>
@@ -5832,14 +5878,14 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -5858,16 +5904,16 @@
         <v>80</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5905,19 +5951,19 @@
         <v>80</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>80</v>
+        <v>121</v>
       </c>
       <c r="AD32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>81</v>
@@ -5926,10 +5972,10 @@
         <v>82</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>80</v>
@@ -5938,7 +5984,7 @@
         <v>80</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>80</v>
@@ -5955,14 +6001,14 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -5981,19 +6027,19 @@
         <v>94</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>80</v>
@@ -6042,7 +6088,7 @@
         <v>80</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>81</v>
@@ -6051,10 +6097,10 @@
         <v>82</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>80</v>
@@ -6063,7 +6109,7 @@
         <v>80</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>192</v>
+        <v>107</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>80</v>
@@ -6080,10 +6126,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6106,16 +6152,16 @@
         <v>94</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -6141,13 +6187,13 @@
         <v>80</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>80</v>
@@ -6165,7 +6211,7 @@
         <v>80</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>93</v>
@@ -6174,19 +6220,19 @@
         <v>93</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>80</v>
@@ -6198,15 +6244,15 @@
         <v>80</v>
       </c>
       <c r="AQ34" t="s" s="2">
-        <v>339</v>
+        <v>345</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6229,15 +6275,17 @@
         <v>94</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="N35" s="2"/>
+        <v>349</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>274</v>
+      </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>80</v>
@@ -6286,7 +6334,7 @@
         <v>80</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>93</v>
@@ -6295,19 +6343,19 @@
         <v>93</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>105</v>
+        <v>275</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>80</v>
@@ -6319,15 +6367,15 @@
         <v>80</v>
       </c>
       <c r="AQ35" t="s" s="2">
-        <v>346</v>
+        <v>352</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6350,19 +6398,19 @@
         <v>94</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>80</v>
@@ -6411,7 +6459,7 @@
         <v>80</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>81</v>
@@ -6420,10 +6468,10 @@
         <v>93</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>80</v>
@@ -6432,7 +6480,7 @@
         <v>80</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>80</v>
@@ -6441,18 +6489,18 @@
         <v>80</v>
       </c>
       <c r="AP36" t="s" s="2">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="AQ36" t="s" s="2">
-        <v>354</v>
+        <v>360</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6475,19 +6523,19 @@
         <v>94</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>80</v>
@@ -6512,13 +6560,13 @@
         <v>80</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>80</v>
@@ -6536,7 +6584,7 @@
         <v>80</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>81</v>
@@ -6545,39 +6593,39 @@
         <v>82</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP37" t="s" s="2">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="AQ37" t="s" s="2">
-        <v>365</v>
+        <v>371</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6600,13 +6648,13 @@
         <v>94</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6657,7 +6705,7 @@
         <v>80</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>93</v>
@@ -6666,19 +6714,19 @@
         <v>82</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>80</v>
@@ -6695,10 +6743,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6721,13 +6769,13 @@
         <v>80</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6778,7 +6826,7 @@
         <v>80</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>81</v>
@@ -6799,7 +6847,7 @@
         <v>80</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>80</v>
@@ -6816,14 +6864,14 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -6842,16 +6890,16 @@
         <v>80</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6889,19 +6937,19 @@
         <v>80</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>80</v>
+        <v>121</v>
       </c>
       <c r="AD40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>81</v>
@@ -6910,10 +6958,10 @@
         <v>82</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>80</v>
@@ -6922,7 +6970,7 @@
         <v>80</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>80</v>
@@ -6939,14 +6987,14 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -6965,19 +7013,19 @@
         <v>94</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>80</v>
@@ -7026,7 +7074,7 @@
         <v>80</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>81</v>
@@ -7035,10 +7083,10 @@
         <v>82</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>80</v>
@@ -7047,7 +7095,7 @@
         <v>80</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>192</v>
+        <v>107</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>80</v>
@@ -7064,10 +7112,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7090,15 +7138,17 @@
         <v>94</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="N42" s="2"/>
+        <v>383</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>384</v>
+      </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>80</v>
@@ -7147,7 +7197,7 @@
         <v>80</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>93</v>
@@ -7156,39 +7206,39 @@
         <v>93</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>105</v>
+        <v>385</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP42" t="s" s="2">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="AQ42" t="s" s="2">
-        <v>381</v>
+        <v>389</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7211,13 +7261,13 @@
         <v>80</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -7268,7 +7318,7 @@
         <v>80</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>81</v>
@@ -7289,7 +7339,7 @@
         <v>80</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>80</v>
@@ -7306,14 +7356,14 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -7332,16 +7382,16 @@
         <v>80</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7379,19 +7429,19 @@
         <v>80</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="AD44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>81</v>
@@ -7400,10 +7450,10 @@
         <v>82</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>80</v>
@@ -7412,7 +7462,7 @@
         <v>80</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>80</v>
@@ -7429,10 +7479,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7455,17 +7505,19 @@
         <v>94</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="N45" s="2"/>
+        <v>394</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>395</v>
+      </c>
       <c r="O45" t="s" s="2">
-        <v>387</v>
+        <v>396</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>80</v>
@@ -7478,7 +7530,7 @@
         <v>80</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="U45" t="s" s="2">
         <v>80</v>
@@ -7490,13 +7542,13 @@
         <v>80</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>389</v>
+        <v>398</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>390</v>
+        <v>399</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>80</v>
@@ -7514,7 +7566,7 @@
         <v>80</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>81</v>
@@ -7523,10 +7575,10 @@
         <v>93</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>80</v>
@@ -7535,7 +7587,7 @@
         <v>80</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>392</v>
+        <v>401</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>80</v>
@@ -7544,7 +7596,7 @@
         <v>80</v>
       </c>
       <c r="AP45" t="s" s="2">
-        <v>393</v>
+        <v>402</v>
       </c>
       <c r="AQ45" t="s" s="2">
         <v>80</v>
@@ -7552,10 +7604,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7578,17 +7630,19 @@
         <v>94</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="L46" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="N46" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="M46" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
-        <v>397</v>
+        <v>406</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>80</v>
@@ -7601,7 +7655,7 @@
         <v>80</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="U46" t="s" s="2">
         <v>80</v>
@@ -7613,13 +7667,13 @@
         <v>80</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>80</v>
@@ -7637,7 +7691,7 @@
         <v>80</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>81</v>
@@ -7646,10 +7700,10 @@
         <v>93</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>80</v>
@@ -7658,7 +7712,7 @@
         <v>80</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>80</v>
@@ -7675,10 +7729,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>401</v>
+        <v>410</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>401</v>
+        <v>410</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7701,19 +7755,19 @@
         <v>80</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>402</v>
+        <v>411</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>403</v>
+        <v>412</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>404</v>
+        <v>413</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>405</v>
+        <v>414</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>406</v>
+        <v>415</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>80</v>
@@ -7762,7 +7816,7 @@
         <v>80</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>407</v>
+        <v>416</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>81</v>
@@ -7771,10 +7825,10 @@
         <v>93</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>80</v>
@@ -7783,7 +7837,7 @@
         <v>80</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>408</v>
+        <v>417</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>80</v>
@@ -7792,7 +7846,7 @@
         <v>80</v>
       </c>
       <c r="AP47" t="s" s="2">
-        <v>409</v>
+        <v>418</v>
       </c>
       <c r="AQ47" t="s" s="2">
         <v>80</v>
@@ -7800,10 +7854,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7826,19 +7880,19 @@
         <v>94</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>412</v>
+        <v>421</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>414</v>
+        <v>423</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>415</v>
+        <v>424</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>80</v>
@@ -7851,7 +7905,7 @@
         <v>80</v>
       </c>
       <c r="T48" t="s" s="2">
-        <v>416</v>
+        <v>425</v>
       </c>
       <c r="U48" t="s" s="2">
         <v>80</v>
@@ -7887,7 +7941,7 @@
         <v>80</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>417</v>
+        <v>426</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>81</v>
@@ -7896,10 +7950,10 @@
         <v>93</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>80</v>
@@ -7908,7 +7962,7 @@
         <v>80</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>80</v>
@@ -7917,7 +7971,7 @@
         <v>80</v>
       </c>
       <c r="AP48" t="s" s="2">
-        <v>419</v>
+        <v>428</v>
       </c>
       <c r="AQ48" t="s" s="2">
         <v>80</v>
@@ -7925,10 +7979,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>420</v>
+        <v>429</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>420</v>
+        <v>429</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7951,19 +8005,19 @@
         <v>94</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>421</v>
+        <v>430</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>422</v>
+        <v>431</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>425</v>
+        <v>434</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>80</v>
@@ -8012,7 +8066,7 @@
         <v>80</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>426</v>
+        <v>435</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>81</v>
@@ -8021,10 +8075,10 @@
         <v>93</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>80</v>
@@ -8033,7 +8087,7 @@
         <v>80</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>427</v>
+        <v>436</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>80</v>
@@ -8050,10 +8104,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>428</v>
+        <v>437</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>428</v>
+        <v>437</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8076,19 +8130,19 @@
         <v>94</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>402</v>
+        <v>411</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>429</v>
+        <v>438</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>430</v>
+        <v>439</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>431</v>
+        <v>440</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>432</v>
+        <v>441</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>80</v>
@@ -8137,7 +8191,7 @@
         <v>80</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>433</v>
+        <v>442</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>81</v>
@@ -8146,10 +8200,10 @@
         <v>93</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>80</v>
@@ -8158,7 +8212,7 @@
         <v>80</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>80</v>
@@ -8175,10 +8229,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>435</v>
+        <v>444</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>435</v>
+        <v>444</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8201,17 +8255,19 @@
         <v>94</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>436</v>
+        <v>445</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="N51" s="2"/>
+        <v>446</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>395</v>
+      </c>
       <c r="O51" t="s" s="2">
-        <v>438</v>
+        <v>447</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>80</v>
@@ -8224,7 +8280,7 @@
         <v>80</v>
       </c>
       <c r="T51" t="s" s="2">
-        <v>439</v>
+        <v>448</v>
       </c>
       <c r="U51" t="s" s="2">
         <v>80</v>
@@ -8260,7 +8316,7 @@
         <v>80</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>440</v>
+        <v>449</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>81</v>
@@ -8269,10 +8325,10 @@
         <v>93</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>80</v>
@@ -8281,7 +8337,7 @@
         <v>80</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>441</v>
+        <v>450</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>80</v>
@@ -8298,10 +8354,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8324,17 +8380,17 @@
         <v>94</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>443</v>
+        <v>452</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>444</v>
+        <v>453</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
-        <v>446</v>
+        <v>455</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>80</v>
@@ -8383,7 +8439,7 @@
         <v>80</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>81</v>
@@ -8392,10 +8448,10 @@
         <v>93</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>80</v>
@@ -8404,7 +8460,7 @@
         <v>80</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>427</v>
+        <v>436</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>80</v>
@@ -8421,10 +8477,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>448</v>
+        <v>457</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>448</v>
+        <v>457</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8447,16 +8503,16 @@
         <v>94</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>449</v>
+        <v>458</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>450</v>
+        <v>459</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>451</v>
+        <v>460</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -8482,11 +8538,11 @@
         <v>80</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="Y53" s="2"/>
       <c r="Z53" t="s" s="2">
-        <v>452</v>
+        <v>461</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>80</v>
@@ -8504,7 +8560,7 @@
         <v>80</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>448</v>
+        <v>457</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>81</v>
@@ -8513,39 +8569,39 @@
         <v>93</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>453</v>
+        <v>462</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>454</v>
+        <v>463</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>455</v>
+        <v>464</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP53" t="s" s="2">
-        <v>80</v>
+        <v>158</v>
       </c>
       <c r="AQ53" t="s" s="2">
-        <v>456</v>
+        <v>465</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>457</v>
+        <v>466</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>457</v>
+        <v>466</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8568,16 +8624,16 @@
         <v>94</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>458</v>
+        <v>467</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>459</v>
+        <v>468</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>460</v>
+        <v>469</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -8627,7 +8683,7 @@
         <v>80</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>457</v>
+        <v>466</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>81</v>
@@ -8636,10 +8692,10 @@
         <v>93</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>80</v>
@@ -8648,7 +8704,7 @@
         <v>80</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>80</v>
@@ -8665,10 +8721,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>462</v>
+        <v>471</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>462</v>
+        <v>471</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8691,13 +8747,13 @@
         <v>80</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8748,7 +8804,7 @@
         <v>80</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>81</v>
@@ -8769,7 +8825,7 @@
         <v>80</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>80</v>
@@ -8786,14 +8842,14 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>463</v>
+        <v>472</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>463</v>
+        <v>472</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -8812,16 +8868,16 @@
         <v>80</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8859,19 +8915,19 @@
         <v>80</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="AC56" t="s" s="2">
-        <v>80</v>
+        <v>121</v>
       </c>
       <c r="AD56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>81</v>
@@ -8880,10 +8936,10 @@
         <v>82</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>80</v>
@@ -8892,7 +8948,7 @@
         <v>80</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>80</v>
@@ -8909,14 +8965,14 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>464</v>
+        <v>473</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>464</v>
+        <v>473</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -8935,19 +8991,19 @@
         <v>94</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>80</v>
@@ -8996,7 +9052,7 @@
         <v>80</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>81</v>
@@ -9005,10 +9061,10 @@
         <v>82</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>80</v>
@@ -9017,7 +9073,7 @@
         <v>80</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>192</v>
+        <v>107</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>80</v>
@@ -9034,10 +9090,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>465</v>
+        <v>474</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>465</v>
+        <v>474</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9060,15 +9116,17 @@
         <v>80</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>466</v>
+        <v>475</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>467</v>
+        <v>476</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="N58" s="2"/>
+        <v>477</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>274</v>
+      </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>80</v>
@@ -9117,7 +9175,7 @@
         <v>80</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>465</v>
+        <v>474</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>81</v>
@@ -9126,25 +9184,25 @@
         <v>82</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>105</v>
+        <v>275</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>470</v>
+        <v>479</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>471</v>
+        <v>480</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>472</v>
+        <v>481</v>
       </c>
       <c r="AP58" t="s" s="2">
         <v>80</v>
@@ -9155,10 +9213,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>473</v>
+        <v>482</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>473</v>
+        <v>482</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9181,16 +9239,16 @@
         <v>80</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>474</v>
+        <v>483</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>475</v>
+        <v>484</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>476</v>
+        <v>485</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -9216,13 +9274,13 @@
         <v>80</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>477</v>
+        <v>486</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>478</v>
+        <v>487</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>80</v>
@@ -9240,7 +9298,7 @@
         <v>80</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>473</v>
+        <v>482</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>81</v>
@@ -9249,19 +9307,19 @@
         <v>82</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>479</v>
+        <v>488</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>480</v>
+        <v>489</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>481</v>
+        <v>490</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>80</v>
@@ -9270,18 +9328,18 @@
         <v>80</v>
       </c>
       <c r="AP59" t="s" s="2">
-        <v>80</v>
+        <v>268</v>
       </c>
       <c r="AQ59" t="s" s="2">
-        <v>482</v>
+        <v>491</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>483</v>
+        <v>492</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>483</v>
+        <v>492</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9304,15 +9362,17 @@
         <v>94</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>484</v>
+        <v>493</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>485</v>
+        <v>494</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="N60" s="2"/>
+        <v>495</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>496</v>
+      </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>80</v>
@@ -9361,7 +9421,7 @@
         <v>80</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>483</v>
+        <v>492</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>81</v>
@@ -9370,39 +9430,39 @@
         <v>93</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>105</v>
+        <v>497</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>487</v>
+        <v>498</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>488</v>
+        <v>499</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>489</v>
+        <v>500</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP60" t="s" s="2">
-        <v>80</v>
+        <v>501</v>
       </c>
       <c r="AQ60" t="s" s="2">
-        <v>490</v>
+        <v>502</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>491</v>
+        <v>503</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>491</v>
+        <v>503</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9425,15 +9485,17 @@
         <v>80</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>492</v>
+        <v>504</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="N61" s="2"/>
+        <v>505</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>506</v>
+      </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>80</v>
@@ -9458,11 +9520,11 @@
         <v>80</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="Y61" s="2"/>
       <c r="Z61" t="s" s="2">
-        <v>494</v>
+        <v>507</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>80</v>
@@ -9480,7 +9542,7 @@
         <v>80</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>491</v>
+        <v>503</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>81</v>
@@ -9489,39 +9551,39 @@
         <v>93</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>495</v>
+        <v>508</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>496</v>
+        <v>509</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>497</v>
+        <v>510</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>498</v>
+        <v>511</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP61" t="s" s="2">
-        <v>80</v>
+        <v>268</v>
       </c>
       <c r="AQ61" t="s" s="2">
-        <v>499</v>
+        <v>512</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>500</v>
+        <v>513</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>500</v>
+        <v>513</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9544,19 +9606,19 @@
         <v>80</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>501</v>
+        <v>514</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>502</v>
+        <v>515</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>503</v>
+        <v>516</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>504</v>
+        <v>517</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>80</v>
@@ -9581,11 +9643,11 @@
         <v>80</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="Y62" s="2"/>
       <c r="Z62" t="s" s="2">
-        <v>505</v>
+        <v>518</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>80</v>
@@ -9603,7 +9665,7 @@
         <v>80</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>500</v>
+        <v>513</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>81</v>
@@ -9612,39 +9674,39 @@
         <v>93</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>495</v>
+        <v>508</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>496</v>
+        <v>509</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>497</v>
+        <v>510</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>496</v>
+        <v>509</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP62" t="s" s="2">
-        <v>80</v>
+        <v>268</v>
       </c>
       <c r="AQ62" t="s" s="2">
-        <v>506</v>
+        <v>519</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>507</v>
+        <v>520</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>507</v>
+        <v>520</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9667,15 +9729,17 @@
         <v>80</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>508</v>
+        <v>521</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="N63" s="2"/>
+        <v>522</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>274</v>
+      </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>80</v>
@@ -9724,7 +9788,7 @@
         <v>80</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>507</v>
+        <v>520</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>81</v>
@@ -9733,22 +9797,22 @@
         <v>93</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>105</v>
+        <v>275</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>80</v>
@@ -9757,15 +9821,15 @@
         <v>80</v>
       </c>
       <c r="AQ63" t="s" s="2">
-        <v>510</v>
+        <v>523</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>511</v>
+        <v>524</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>511</v>
+        <v>524</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9788,16 +9852,16 @@
         <v>80</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>512</v>
+        <v>525</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>513</v>
+        <v>526</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>514</v>
+        <v>527</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>515</v>
+        <v>528</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -9847,7 +9911,7 @@
         <v>80</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>511</v>
+        <v>524</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>81</v>
@@ -9856,22 +9920,22 @@
         <v>82</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>105</v>
+        <v>275</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>516</v>
+        <v>529</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>517</v>
+        <v>530</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>518</v>
+        <v>531</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>80</v>
@@ -9880,7 +9944,7 @@
         <v>80</v>
       </c>
       <c r="AQ64" t="s" s="2">
-        <v>519</v>
+        <v>532</v>
       </c>
     </row>
   </sheetData>

--- a/main/ig/StructureDefinition-tddui-documentreference.xlsx
+++ b/main/ig/StructureDefinition-tddui-documentreference.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2537" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2527" uniqueCount="520">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-13T21:48:00+00:00</t>
+    <t>2024-11-14T09:46:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -281,7 +281,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -337,17 +337,10 @@
     <t>Resource.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>DocumentReference.meta.id</t>
   </si>
   <si>
@@ -505,12 +498,6 @@
     <t>Meta.security</t>
   </si>
   <si>
-    <t>CV</t>
-  </si>
-  <si>
-    <t>CE/CNE/CWE subset one of the sets of component 1-3 or 4-6</t>
-  </si>
-  <si>
     <t>DocumentReference.meta.tag</t>
   </si>
   <si>
@@ -625,6 +612,9 @@
   </si>
   <si>
     <t>DomainResource.contained</t>
+  </si>
+  <si>
+    <t>N/A</t>
   </si>
   <si>
     <t>DocumentReference.extension</t>
@@ -858,9 +848,6 @@
     <t>Derived from a mapping of /ClinicalDocument/code/@code to an Affinity Domain specified coded value to use and coding system. Affinity Domains are encouraged to use the appropriate value for Type of Service, based on the LOINC Type of Service (see Page 53 of the LOINC User's Manual). Must be consistent with /ClinicalDocument/code/@code</t>
   </si>
   <si>
-    <t>CE/CNE/CWE</t>
-  </si>
-  <si>
     <t>DocumentEntry.class</t>
   </si>
   <si>
@@ -877,13 +864,6 @@
     <t>Who or what the document is about. The document can be about a person, (patient or healthcare practitioner), a device (e.g. a machine) or even a group of subjects (such as a document about a herd of farm animals, or a set of patients that share a common exposure).</t>
   </si>
   <si>
-    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ref-1:SHALL have a contained resource if a local reference is provided {reference.startsWith('#').not() or (reference.substring(1).trace('url') in %rootResource.contained.id.trace('ids'))}</t>
-  </si>
-  <si>
     <t>Event.subject</t>
   </si>
   <si>
@@ -1217,13 +1197,6 @@
   </si>
   <si>
     <t>The document or URL of the document along with critical metadata to prove content has integrity.</t>
-  </si>
-  <si>
-    <t>When providing a summary view (for example with Observation.value[x]) Attachment should be represented with a brief display text such as "Signed Procedure Consent".</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-att-1:If the Attachment has data, it SHALL have a contentType {data.empty() or contentType.exists()}</t>
   </si>
   <si>
     <t>Composition.language, 
@@ -1253,9 +1226,6 @@
   </si>
   <si>
     <t>Identifies the type of the data in the attachment and allows a method to be chosen to interpret or render the data. Includes mime type parameters such as charset where appropriate.</t>
-  </si>
-  <si>
-    <t>Note that FHIR strings SHALL NOT exceed 1MB in size</t>
   </si>
   <si>
     <t>Processors of the data need to be able to know how to interpret the data.</t>
@@ -1575,14 +1545,6 @@
     <t>The time period over which the service that is described by the document was provided.</t>
   </si>
   <si>
-    <t>A Period specifies a range of time; the context of use will specify whether the entire range applies (e.g. "the patient was an inpatient of the hospital for this time range") or one value from the range applies (e.g. "give to the patient between these two times").
-Period is not used for a duration (a measure of elapsed time). See [Duration](http://hl7.org/fhir/R4/datatypes.html#Duration).</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-per-1:If present, start SHALL have a lower value than end {start.hasValue().not() or end.hasValue().not() or (start &lt;= end)}</t>
-  </si>
-  <si>
     <t>Composition.event.period</t>
   </si>
   <si>
@@ -1596,9 +1558,6 @@
 @value</t>
   </si>
   <si>
-    <t>DR</t>
-  </si>
-  <si>
     <t>DocumentEntry.serviceStartTime, DocumentEntry.serviceStopTime</t>
   </si>
   <si>
@@ -1609,9 +1568,6 @@
   </si>
   <si>
     <t>The kind of facility where the patient was seen.</t>
-  </si>
-  <si>
-    <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.</t>
   </si>
   <si>
     <t>https://mos.esante.gouv.fr/NOS/JDV_J02-XdsHealthcareFacilityTypeCode-CISIS/FHIR/JDV-J02-XdsHealthcareFacilityTypeCode-CISIS</t>
@@ -2538,11 +2494,11 @@
         <v>93</v>
       </c>
       <c r="AI4" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ4" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AJ4" t="s" s="2">
-        <v>106</v>
-      </c>
       <c r="AK4" t="s" s="2">
         <v>80</v>
       </c>
@@ -2550,7 +2506,7 @@
         <v>80</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="AN4" t="s" s="2">
         <v>80</v>
@@ -2567,10 +2523,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2593,13 +2549,13 @@
         <v>80</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="L5" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="M5" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="L5" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>111</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -2650,7 +2606,7 @@
         <v>80</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>81</v>
@@ -2671,7 +2627,7 @@
         <v>80</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AN5" t="s" s="2">
         <v>80</v>
@@ -2688,14 +2644,14 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
@@ -2714,16 +2670,16 @@
         <v>80</v>
       </c>
       <c r="K6" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="L6" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="M6" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="N6" t="s" s="2">
         <v>117</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="N6" t="s" s="2">
-        <v>119</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2761,19 +2717,19 @@
         <v>80</v>
       </c>
       <c r="AB6" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="AC6" t="s" s="2">
+      <c r="AF6" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="AF6" t="s" s="2">
-        <v>123</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>81</v>
@@ -2782,10 +2738,10 @@
         <v>82</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>80</v>
@@ -2794,7 +2750,7 @@
         <v>80</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="AN6" t="s" s="2">
         <v>80</v>
@@ -2811,10 +2767,10 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -2840,13 +2796,13 @@
         <v>95</v>
       </c>
       <c r="L7" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="M7" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="N7" t="s" s="2">
         <v>126</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="N7" t="s" s="2">
-        <v>128</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2896,7 +2852,7 @@
         <v>80</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>81</v>
@@ -2905,11 +2861,11 @@
         <v>93</v>
       </c>
       <c r="AI7" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AJ7" t="s" s="2">
-        <v>106</v>
-      </c>
       <c r="AK7" t="s" s="2">
         <v>80</v>
       </c>
@@ -2917,7 +2873,7 @@
         <v>80</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="AN7" t="s" s="2">
         <v>80</v>
@@ -2934,10 +2890,10 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -2960,16 +2916,16 @@
         <v>94</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="L8" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="M8" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="N8" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>134</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -3019,7 +2975,7 @@
         <v>80</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>81</v>
@@ -3028,11 +2984,11 @@
         <v>93</v>
       </c>
       <c r="AI8" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ8" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AJ8" t="s" s="2">
-        <v>106</v>
-      </c>
       <c r="AK8" t="s" s="2">
         <v>80</v>
       </c>
@@ -3040,7 +2996,7 @@
         <v>80</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="AN8" t="s" s="2">
         <v>80</v>
@@ -3057,10 +3013,10 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -3083,16 +3039,16 @@
         <v>94</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="L9" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="M9" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="N9" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>140</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -3142,7 +3098,7 @@
         <v>80</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>81</v>
@@ -3151,11 +3107,11 @@
         <v>93</v>
       </c>
       <c r="AI9" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ9" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AJ9" t="s" s="2">
-        <v>106</v>
-      </c>
       <c r="AK9" t="s" s="2">
         <v>80</v>
       </c>
@@ -3163,7 +3119,7 @@
         <v>80</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="AN9" t="s" s="2">
         <v>80</v>
@@ -3180,10 +3136,10 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -3206,16 +3162,16 @@
         <v>94</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="L10" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="M10" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="N10" t="s" s="2">
         <v>144</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>146</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
@@ -3265,7 +3221,7 @@
         <v>80</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>81</v>
@@ -3274,11 +3230,11 @@
         <v>82</v>
       </c>
       <c r="AI10" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ10" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AJ10" t="s" s="2">
-        <v>106</v>
-      </c>
       <c r="AK10" t="s" s="2">
         <v>80</v>
       </c>
@@ -3286,7 +3242,7 @@
         <v>80</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="AN10" t="s" s="2">
         <v>80</v>
@@ -3303,10 +3259,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -3329,16 +3285,16 @@
         <v>94</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="L11" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="M11" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="N11" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>152</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -3364,31 +3320,31 @@
         <v>80</v>
       </c>
       <c r="X11" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="Y11" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="Z11" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="Y11" t="s" s="2">
+      <c r="AA11" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB11" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC11" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD11" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE11" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF11" t="s" s="2">
         <v>154</v>
-      </c>
-      <c r="Z11" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="AA11" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB11" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC11" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD11" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE11" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF11" t="s" s="2">
-        <v>156</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>81</v>
@@ -3397,11 +3353,11 @@
         <v>82</v>
       </c>
       <c r="AI11" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ11" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AJ11" t="s" s="2">
-        <v>106</v>
-      </c>
       <c r="AK11" t="s" s="2">
         <v>80</v>
       </c>
@@ -3409,7 +3365,7 @@
         <v>80</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>157</v>
+        <v>80</v>
       </c>
       <c r="AN11" t="s" s="2">
         <v>80</v>
@@ -3418,7 +3374,7 @@
         <v>80</v>
       </c>
       <c r="AP11" t="s" s="2">
-        <v>158</v>
+        <v>80</v>
       </c>
       <c r="AQ11" t="s" s="2">
         <v>80</v>
@@ -3426,10 +3382,10 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3452,16 +3408,16 @@
         <v>94</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -3487,13 +3443,13 @@
         <v>80</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>80</v>
@@ -3511,7 +3467,7 @@
         <v>80</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>81</v>
@@ -3520,11 +3476,11 @@
         <v>82</v>
       </c>
       <c r="AI12" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ12" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AJ12" t="s" s="2">
-        <v>106</v>
-      </c>
       <c r="AK12" t="s" s="2">
         <v>80</v>
       </c>
@@ -3532,7 +3488,7 @@
         <v>80</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>157</v>
+        <v>80</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>80</v>
@@ -3541,7 +3497,7 @@
         <v>80</v>
       </c>
       <c r="AP12" t="s" s="2">
-        <v>158</v>
+        <v>80</v>
       </c>
       <c r="AQ12" t="s" s="2">
         <v>80</v>
@@ -3549,10 +3505,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3575,16 +3531,16 @@
         <v>94</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3634,7 +3590,7 @@
         <v>80</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>81</v>
@@ -3643,11 +3599,11 @@
         <v>93</v>
       </c>
       <c r="AI13" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AJ13" t="s" s="2">
-        <v>106</v>
-      </c>
       <c r="AK13" t="s" s="2">
         <v>80</v>
       </c>
@@ -3655,7 +3611,7 @@
         <v>80</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>80</v>
@@ -3672,10 +3628,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3698,16 +3654,16 @@
         <v>80</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3733,13 +3689,13 @@
         <v>80</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>80</v>
@@ -3757,7 +3713,7 @@
         <v>80</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>81</v>
@@ -3766,11 +3722,11 @@
         <v>93</v>
       </c>
       <c r="AI14" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AJ14" t="s" s="2">
-        <v>106</v>
-      </c>
       <c r="AK14" t="s" s="2">
         <v>80</v>
       </c>
@@ -3778,7 +3734,7 @@
         <v>80</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>80</v>
@@ -3795,14 +3751,14 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -3821,16 +3777,16 @@
         <v>80</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3880,7 +3836,7 @@
         <v>80</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>81</v>
@@ -3889,11 +3845,11 @@
         <v>93</v>
       </c>
       <c r="AI15" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AJ15" t="s" s="2">
-        <v>106</v>
-      </c>
       <c r="AK15" t="s" s="2">
         <v>80</v>
       </c>
@@ -3901,7 +3857,7 @@
         <v>80</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>80</v>
@@ -3918,14 +3874,14 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3944,16 +3900,16 @@
         <v>80</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -4003,7 +3959,7 @@
         <v>80</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>81</v>
@@ -4024,7 +3980,7 @@
         <v>80</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>107</v>
+        <v>192</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>80</v>
@@ -4041,14 +3997,14 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -4067,16 +4023,16 @@
         <v>80</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="L17" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="N17" t="s" s="2">
         <v>117</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>119</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -4114,19 +4070,19 @@
         <v>80</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>121</v>
+        <v>80</v>
       </c>
       <c r="AD17" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>122</v>
+        <v>80</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>81</v>
@@ -4135,10 +4091,10 @@
         <v>82</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>80</v>
@@ -4147,7 +4103,7 @@
         <v>80</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>107</v>
+        <v>192</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>80</v>
@@ -4164,10 +4120,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4190,13 +4146,13 @@
         <v>80</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -4235,19 +4191,19 @@
         <v>80</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>121</v>
+        <v>80</v>
       </c>
       <c r="AD18" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>122</v>
+        <v>80</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>81</v>
@@ -4256,10 +4212,10 @@
         <v>82</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>80</v>
@@ -4285,10 +4241,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4311,19 +4267,19 @@
         <v>94</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="L19" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="M19" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="N19" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="O19" t="s" s="2">
         <v>205</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>208</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>80</v>
@@ -4372,7 +4328,7 @@
         <v>80</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>81</v>
@@ -4381,39 +4337,39 @@
         <v>93</v>
       </c>
       <c r="AI19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AJ19" t="s" s="2">
-        <v>106</v>
-      </c>
       <c r="AK19" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="AL19" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AM19" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AN19" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="AL19" t="s" s="2">
+      <c r="AO19" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="AM19" t="s" s="2">
+      <c r="AP19" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="AN19" t="s" s="2">
+      <c r="AQ19" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="AO19" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="AP19" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="AQ19" t="s" s="2">
-        <v>215</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4436,13 +4392,13 @@
         <v>94</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4493,7 +4449,7 @@
         <v>80</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>81</v>
@@ -4502,39 +4458,39 @@
         <v>82</v>
       </c>
       <c r="AI20" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AJ20" t="s" s="2">
-        <v>106</v>
-      </c>
       <c r="AK20" t="s" s="2">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="AP20" t="s" s="2">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="AQ20" t="s" s="2">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4557,16 +4513,16 @@
         <v>94</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4577,29 +4533,29 @@
         <v>80</v>
       </c>
       <c r="S21" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="T21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X21" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="Y21" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="Z21" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="T21" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U21" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V21" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W21" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X21" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="Y21" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="Z21" t="s" s="2">
-        <v>229</v>
-      </c>
       <c r="AA21" t="s" s="2">
         <v>80</v>
       </c>
@@ -4616,7 +4572,7 @@
         <v>80</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>93</v>
@@ -4625,39 +4581,39 @@
         <v>93</v>
       </c>
       <c r="AI21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AJ21" t="s" s="2">
-        <v>106</v>
-      </c>
       <c r="AK21" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="AL21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM21" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="AN21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO21" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="AP21" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="AL21" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM21" t="s" s="2">
+      <c r="AQ21" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="AN21" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO21" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="AP21" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="AQ21" t="s" s="2">
-        <v>234</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4680,16 +4636,16 @@
         <v>94</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4715,13 +4671,13 @@
         <v>80</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>80</v>
@@ -4739,7 +4695,7 @@
         <v>80</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>81</v>
@@ -4748,28 +4704,28 @@
         <v>93</v>
       </c>
       <c r="AI22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AJ22" t="s" s="2">
-        <v>106</v>
-      </c>
       <c r="AK22" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="AP22" t="s" s="2">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="AQ22" t="s" s="2">
         <v>80</v>
@@ -4777,10 +4733,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4803,16 +4759,16 @@
         <v>94</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="L23" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="N23" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>248</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4838,11 +4794,11 @@
         <v>80</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="Y23" s="2"/>
       <c r="Z23" t="s" s="2">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>80</v>
@@ -4860,7 +4816,7 @@
         <v>80</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>81</v>
@@ -4869,43 +4825,43 @@
         <v>93</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="AJ23" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="AK23" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="AL23" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="AM23" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="AK23" t="s" s="2">
+      <c r="AN23" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="AL23" t="s" s="2">
+      <c r="AO23" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="AM23" t="s" s="2">
+      <c r="AP23" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="AN23" t="s" s="2">
+      <c r="AQ23" t="s" s="2">
         <v>254</v>
-      </c>
-      <c r="AO23" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="AP23" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="AQ23" t="s" s="2">
-        <v>257</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -4924,16 +4880,16 @@
         <v>94</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4959,11 +4915,11 @@
         <v>80</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="Y24" s="2"/>
       <c r="Z24" t="s" s="2">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>80</v>
@@ -4981,7 +4937,7 @@
         <v>80</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>81</v>
@@ -4990,39 +4946,39 @@
         <v>82</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="AJ24" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="AK24" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL24" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AM24" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="AN24" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="AK24" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL24" t="s" s="2">
+      <c r="AO24" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AP24" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AQ24" t="s" s="2">
         <v>265</v>
-      </c>
-      <c r="AM24" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="AN24" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="AO24" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="AP24" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="AQ24" t="s" s="2">
-        <v>269</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5045,17 +5001,15 @@
         <v>94</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>274</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>80</v>
@@ -5104,7 +5058,7 @@
         <v>80</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>81</v>
@@ -5113,43 +5067,43 @@
         <v>93</v>
       </c>
       <c r="AI25" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AJ25" t="s" s="2">
+      <c r="AK25" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AL25" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="AM25" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="AN25" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="AO25" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="AP25" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="AK25" t="s" s="2">
+      <c r="AQ25" t="s" s="2">
         <v>276</v>
-      </c>
-      <c r="AL25" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="AM25" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="AO25" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="AP25" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="AQ25" t="s" s="2">
-        <v>282</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -5168,16 +5122,16 @@
         <v>94</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -5227,7 +5181,7 @@
         <v>80</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>81</v>
@@ -5236,25 +5190,25 @@
         <v>93</v>
       </c>
       <c r="AI26" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AJ26" t="s" s="2">
-        <v>106</v>
-      </c>
       <c r="AK26" t="s" s="2">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="AP26" t="s" s="2">
         <v>80</v>
@@ -5265,10 +5219,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5291,16 +5245,16 @@
         <v>94</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -5350,7 +5304,7 @@
         <v>80</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>81</v>
@@ -5359,39 +5313,39 @@
         <v>82</v>
       </c>
       <c r="AI27" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AJ27" t="s" s="2">
-        <v>275</v>
-      </c>
       <c r="AK27" t="s" s="2">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP27" t="s" s="2">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="AQ27" t="s" s="2">
-        <v>302</v>
+        <v>296</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5414,16 +5368,16 @@
         <v>80</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5473,7 +5427,7 @@
         <v>80</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>81</v>
@@ -5482,39 +5436,39 @@
         <v>93</v>
       </c>
       <c r="AI28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AJ28" t="s" s="2">
-        <v>275</v>
-      </c>
       <c r="AK28" t="s" s="2">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="AP28" t="s" s="2">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="AQ28" t="s" s="2">
-        <v>313</v>
+        <v>307</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5537,16 +5491,16 @@
         <v>80</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5596,7 +5550,7 @@
         <v>80</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>81</v>
@@ -5605,19 +5559,19 @@
         <v>93</v>
       </c>
       <c r="AI29" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AJ29" t="s" s="2">
-        <v>275</v>
-      </c>
       <c r="AK29" t="s" s="2">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>80</v>
@@ -5634,10 +5588,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5660,16 +5614,16 @@
         <v>94</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5719,7 +5673,7 @@
         <v>80</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>81</v>
@@ -5728,19 +5682,19 @@
         <v>82</v>
       </c>
       <c r="AI30" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AJ30" t="s" s="2">
-        <v>106</v>
-      </c>
       <c r="AK30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>80</v>
@@ -5752,15 +5706,15 @@
         <v>80</v>
       </c>
       <c r="AQ30" t="s" s="2">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5783,13 +5737,13 @@
         <v>80</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="L31" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="M31" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>111</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5840,7 +5794,7 @@
         <v>80</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>81</v>
@@ -5861,7 +5815,7 @@
         <v>80</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>80</v>
@@ -5878,14 +5832,14 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -5904,16 +5858,16 @@
         <v>80</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="L32" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>117</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>119</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5951,19 +5905,19 @@
         <v>80</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="AC32" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE32" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF32" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="AD32" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE32" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="AF32" t="s" s="2">
-        <v>123</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>81</v>
@@ -5972,10 +5926,10 @@
         <v>82</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>80</v>
@@ -5984,7 +5938,7 @@
         <v>80</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>80</v>
@@ -6001,14 +5955,14 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -6027,19 +5981,19 @@
         <v>94</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>80</v>
@@ -6088,7 +6042,7 @@
         <v>80</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>81</v>
@@ -6097,10 +6051,10 @@
         <v>82</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>80</v>
@@ -6109,7 +6063,7 @@
         <v>80</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>107</v>
+        <v>192</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>80</v>
@@ -6126,10 +6080,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6152,16 +6106,16 @@
         <v>94</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -6187,13 +6141,13 @@
         <v>80</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>80</v>
@@ -6211,7 +6165,7 @@
         <v>80</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>93</v>
@@ -6220,19 +6174,19 @@
         <v>93</v>
       </c>
       <c r="AI34" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AJ34" t="s" s="2">
-        <v>106</v>
-      </c>
       <c r="AK34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>80</v>
@@ -6244,15 +6198,15 @@
         <v>80</v>
       </c>
       <c r="AQ34" t="s" s="2">
-        <v>345</v>
+        <v>339</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6275,17 +6229,15 @@
         <v>94</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>274</v>
-      </c>
+        <v>343</v>
+      </c>
+      <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>80</v>
@@ -6334,7 +6286,7 @@
         <v>80</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>93</v>
@@ -6343,19 +6295,19 @@
         <v>93</v>
       </c>
       <c r="AI35" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AJ35" t="s" s="2">
-        <v>275</v>
-      </c>
       <c r="AK35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>80</v>
@@ -6367,15 +6319,15 @@
         <v>80</v>
       </c>
       <c r="AQ35" t="s" s="2">
-        <v>352</v>
+        <v>346</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6398,19 +6350,19 @@
         <v>94</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>80</v>
@@ -6459,7 +6411,7 @@
         <v>80</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>81</v>
@@ -6468,11 +6420,11 @@
         <v>93</v>
       </c>
       <c r="AI36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AJ36" t="s" s="2">
-        <v>106</v>
-      </c>
       <c r="AK36" t="s" s="2">
         <v>80</v>
       </c>
@@ -6480,7 +6432,7 @@
         <v>80</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>80</v>
@@ -6489,18 +6441,18 @@
         <v>80</v>
       </c>
       <c r="AP36" t="s" s="2">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="AQ36" t="s" s="2">
-        <v>360</v>
+        <v>354</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6523,19 +6475,19 @@
         <v>94</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>80</v>
@@ -6560,14 +6512,14 @@
         <v>80</v>
       </c>
       <c r="X37" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="Y37" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="Z37" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="Y37" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="Z37" t="s" s="2">
-        <v>155</v>
-      </c>
       <c r="AA37" t="s" s="2">
         <v>80</v>
       </c>
@@ -6584,7 +6536,7 @@
         <v>80</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>81</v>
@@ -6593,39 +6545,39 @@
         <v>82</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP37" t="s" s="2">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="AQ37" t="s" s="2">
-        <v>371</v>
+        <v>365</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6648,13 +6600,13 @@
         <v>94</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6705,7 +6657,7 @@
         <v>80</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>93</v>
@@ -6714,19 +6666,19 @@
         <v>82</v>
       </c>
       <c r="AI38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AJ38" t="s" s="2">
-        <v>106</v>
-      </c>
       <c r="AK38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>80</v>
@@ -6743,10 +6695,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6769,13 +6721,13 @@
         <v>80</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="L39" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="M39" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>111</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6826,7 +6778,7 @@
         <v>80</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>81</v>
@@ -6847,7 +6799,7 @@
         <v>80</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>80</v>
@@ -6864,14 +6816,14 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -6890,16 +6842,16 @@
         <v>80</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="M40" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="N40" t="s" s="2">
         <v>117</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>119</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6937,19 +6889,19 @@
         <v>80</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="AC40" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE40" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF40" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="AD40" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE40" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="AF40" t="s" s="2">
-        <v>123</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>81</v>
@@ -6958,10 +6910,10 @@
         <v>82</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>80</v>
@@ -6970,7 +6922,7 @@
         <v>80</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>80</v>
@@ -6987,14 +6939,14 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -7013,19 +6965,19 @@
         <v>94</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>80</v>
@@ -7074,7 +7026,7 @@
         <v>80</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>81</v>
@@ -7083,10 +7035,10 @@
         <v>82</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>80</v>
@@ -7095,7 +7047,7 @@
         <v>80</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>107</v>
+        <v>192</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>80</v>
@@ -7112,10 +7064,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7138,17 +7090,15 @@
         <v>94</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>384</v>
-      </c>
+        <v>377</v>
+      </c>
+      <c r="N42" s="2"/>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>80</v>
@@ -7197,7 +7147,7 @@
         <v>80</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>93</v>
@@ -7206,39 +7156,39 @@
         <v>93</v>
       </c>
       <c r="AI42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AJ42" t="s" s="2">
-        <v>385</v>
-      </c>
       <c r="AK42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP42" t="s" s="2">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="AQ42" t="s" s="2">
-        <v>389</v>
+        <v>381</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7261,13 +7211,13 @@
         <v>80</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="M43" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>111</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -7318,7 +7268,7 @@
         <v>80</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>81</v>
@@ -7339,7 +7289,7 @@
         <v>80</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>80</v>
@@ -7356,14 +7306,14 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -7382,16 +7332,16 @@
         <v>80</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="L44" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="M44" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="N44" t="s" s="2">
         <v>117</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>119</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7429,19 +7379,19 @@
         <v>80</v>
       </c>
       <c r="AB44" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE44" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="AC44" t="s" s="2">
+      <c r="AF44" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="AD44" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE44" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="AF44" t="s" s="2">
-        <v>123</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>81</v>
@@ -7450,10 +7400,10 @@
         <v>82</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>80</v>
@@ -7462,7 +7412,7 @@
         <v>80</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>80</v>
@@ -7479,10 +7429,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7505,19 +7455,17 @@
         <v>94</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>395</v>
-      </c>
+        <v>386</v>
+      </c>
+      <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>80</v>
@@ -7530,7 +7478,7 @@
         <v>80</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="U45" t="s" s="2">
         <v>80</v>
@@ -7542,13 +7490,13 @@
         <v>80</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>80</v>
@@ -7566,7 +7514,7 @@
         <v>80</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>81</v>
@@ -7575,11 +7523,11 @@
         <v>93</v>
       </c>
       <c r="AI45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AJ45" t="s" s="2">
-        <v>106</v>
-      </c>
       <c r="AK45" t="s" s="2">
         <v>80</v>
       </c>
@@ -7587,7 +7535,7 @@
         <v>80</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>80</v>
@@ -7596,7 +7544,7 @@
         <v>80</v>
       </c>
       <c r="AP45" t="s" s="2">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="AQ45" t="s" s="2">
         <v>80</v>
@@ -7604,10 +7552,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7630,19 +7578,17 @@
         <v>94</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>395</v>
-      </c>
+        <v>396</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>80</v>
@@ -7655,7 +7601,7 @@
         <v>80</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="U46" t="s" s="2">
         <v>80</v>
@@ -7667,13 +7613,13 @@
         <v>80</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>80</v>
@@ -7691,7 +7637,7 @@
         <v>80</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>81</v>
@@ -7700,11 +7646,11 @@
         <v>93</v>
       </c>
       <c r="AI46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AJ46" t="s" s="2">
-        <v>106</v>
-      </c>
       <c r="AK46" t="s" s="2">
         <v>80</v>
       </c>
@@ -7712,7 +7658,7 @@
         <v>80</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>80</v>
@@ -7729,10 +7675,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7755,19 +7701,19 @@
         <v>80</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>80</v>
@@ -7816,7 +7762,7 @@
         <v>80</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>81</v>
@@ -7825,11 +7771,11 @@
         <v>93</v>
       </c>
       <c r="AI47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AJ47" t="s" s="2">
-        <v>106</v>
-      </c>
       <c r="AK47" t="s" s="2">
         <v>80</v>
       </c>
@@ -7837,7 +7783,7 @@
         <v>80</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>80</v>
@@ -7846,7 +7792,7 @@
         <v>80</v>
       </c>
       <c r="AP47" t="s" s="2">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="AQ47" t="s" s="2">
         <v>80</v>
@@ -7854,10 +7800,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7880,19 +7826,19 @@
         <v>94</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>80</v>
@@ -7905,7 +7851,7 @@
         <v>80</v>
       </c>
       <c r="T48" t="s" s="2">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="U48" t="s" s="2">
         <v>80</v>
@@ -7941,7 +7887,7 @@
         <v>80</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>81</v>
@@ -7950,11 +7896,11 @@
         <v>93</v>
       </c>
       <c r="AI48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AJ48" t="s" s="2">
-        <v>106</v>
-      </c>
       <c r="AK48" t="s" s="2">
         <v>80</v>
       </c>
@@ -7962,7 +7908,7 @@
         <v>80</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>80</v>
@@ -7971,7 +7917,7 @@
         <v>80</v>
       </c>
       <c r="AP48" t="s" s="2">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="AQ48" t="s" s="2">
         <v>80</v>
@@ -7979,10 +7925,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8005,19 +7951,19 @@
         <v>94</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>80</v>
@@ -8066,7 +8012,7 @@
         <v>80</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>81</v>
@@ -8075,11 +8021,11 @@
         <v>93</v>
       </c>
       <c r="AI49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AJ49" t="s" s="2">
-        <v>106</v>
-      </c>
       <c r="AK49" t="s" s="2">
         <v>80</v>
       </c>
@@ -8087,7 +8033,7 @@
         <v>80</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>80</v>
@@ -8104,10 +8050,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8130,19 +8076,19 @@
         <v>94</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>80</v>
@@ -8191,7 +8137,7 @@
         <v>80</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>81</v>
@@ -8200,11 +8146,11 @@
         <v>93</v>
       </c>
       <c r="AI50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AJ50" t="s" s="2">
-        <v>106</v>
-      </c>
       <c r="AK50" t="s" s="2">
         <v>80</v>
       </c>
@@ -8212,7 +8158,7 @@
         <v>80</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>80</v>
@@ -8229,10 +8175,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8255,19 +8201,17 @@
         <v>94</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>395</v>
-      </c>
+        <v>437</v>
+      </c>
+      <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>80</v>
@@ -8280,7 +8224,7 @@
         <v>80</v>
       </c>
       <c r="T51" t="s" s="2">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="U51" t="s" s="2">
         <v>80</v>
@@ -8316,7 +8260,7 @@
         <v>80</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>81</v>
@@ -8325,11 +8269,11 @@
         <v>93</v>
       </c>
       <c r="AI51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AJ51" t="s" s="2">
-        <v>106</v>
-      </c>
       <c r="AK51" t="s" s="2">
         <v>80</v>
       </c>
@@ -8337,7 +8281,7 @@
         <v>80</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>80</v>
@@ -8354,10 +8298,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8380,17 +8324,17 @@
         <v>94</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>80</v>
@@ -8439,7 +8383,7 @@
         <v>80</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>81</v>
@@ -8448,11 +8392,11 @@
         <v>93</v>
       </c>
       <c r="AI52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AJ52" t="s" s="2">
-        <v>106</v>
-      </c>
       <c r="AK52" t="s" s="2">
         <v>80</v>
       </c>
@@ -8460,7 +8404,7 @@
         <v>80</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>80</v>
@@ -8477,10 +8421,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8503,16 +8447,16 @@
         <v>94</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -8538,11 +8482,11 @@
         <v>80</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="Y53" s="2"/>
       <c r="Z53" t="s" s="2">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>80</v>
@@ -8560,7 +8504,7 @@
         <v>80</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>81</v>
@@ -8569,39 +8513,39 @@
         <v>93</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP53" t="s" s="2">
-        <v>158</v>
+        <v>80</v>
       </c>
       <c r="AQ53" t="s" s="2">
-        <v>465</v>
+        <v>456</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8624,16 +8568,16 @@
         <v>94</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -8683,7 +8627,7 @@
         <v>80</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>81</v>
@@ -8692,11 +8636,11 @@
         <v>93</v>
       </c>
       <c r="AI54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AJ54" t="s" s="2">
-        <v>106</v>
-      </c>
       <c r="AK54" t="s" s="2">
         <v>80</v>
       </c>
@@ -8704,7 +8648,7 @@
         <v>80</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>80</v>
@@ -8721,10 +8665,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8747,13 +8691,13 @@
         <v>80</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="M55" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>111</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8804,7 +8748,7 @@
         <v>80</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>81</v>
@@ -8825,7 +8769,7 @@
         <v>80</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>80</v>
@@ -8842,14 +8786,14 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -8868,16 +8812,16 @@
         <v>80</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="M56" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="N56" t="s" s="2">
         <v>117</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>119</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8915,19 +8859,19 @@
         <v>80</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="AC56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF56" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="AD56" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE56" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="AF56" t="s" s="2">
-        <v>123</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>81</v>
@@ -8936,10 +8880,10 @@
         <v>82</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>80</v>
@@ -8948,7 +8892,7 @@
         <v>80</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>80</v>
@@ -8965,14 +8909,14 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -8991,19 +8935,19 @@
         <v>94</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>80</v>
@@ -9052,7 +8996,7 @@
         <v>80</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>81</v>
@@ -9061,10 +9005,10 @@
         <v>82</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>80</v>
@@ -9073,7 +9017,7 @@
         <v>80</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>107</v>
+        <v>192</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>80</v>
@@ -9090,10 +9034,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9116,17 +9060,15 @@
         <v>80</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>274</v>
-      </c>
+        <v>468</v>
+      </c>
+      <c r="N58" s="2"/>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>80</v>
@@ -9175,7 +9117,7 @@
         <v>80</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>81</v>
@@ -9184,25 +9126,25 @@
         <v>82</v>
       </c>
       <c r="AI58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AJ58" t="s" s="2">
-        <v>275</v>
-      </c>
       <c r="AK58" t="s" s="2">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="AP58" t="s" s="2">
         <v>80</v>
@@ -9213,10 +9155,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9239,16 +9181,16 @@
         <v>80</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>485</v>
+        <v>476</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -9274,13 +9216,13 @@
         <v>80</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>80</v>
@@ -9298,7 +9240,7 @@
         <v>80</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>81</v>
@@ -9307,19 +9249,19 @@
         <v>82</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>80</v>
@@ -9328,18 +9270,18 @@
         <v>80</v>
       </c>
       <c r="AP59" t="s" s="2">
-        <v>268</v>
+        <v>80</v>
       </c>
       <c r="AQ59" t="s" s="2">
-        <v>491</v>
+        <v>482</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9362,17 +9304,15 @@
         <v>94</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>496</v>
-      </c>
+        <v>486</v>
+      </c>
+      <c r="N60" s="2"/>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>80</v>
@@ -9421,7 +9361,7 @@
         <v>80</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>81</v>
@@ -9430,39 +9370,39 @@
         <v>93</v>
       </c>
       <c r="AI60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AJ60" t="s" s="2">
-        <v>497</v>
-      </c>
       <c r="AK60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>498</v>
+        <v>487</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>499</v>
+        <v>488</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>500</v>
+        <v>489</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP60" t="s" s="2">
-        <v>501</v>
+        <v>80</v>
       </c>
       <c r="AQ60" t="s" s="2">
-        <v>502</v>
+        <v>490</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>503</v>
+        <v>491</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>503</v>
+        <v>491</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9485,17 +9425,15 @@
         <v>80</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>504</v>
+        <v>492</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>506</v>
-      </c>
+        <v>493</v>
+      </c>
+      <c r="N61" s="2"/>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>80</v>
@@ -9520,11 +9458,11 @@
         <v>80</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="Y61" s="2"/>
       <c r="Z61" t="s" s="2">
-        <v>507</v>
+        <v>494</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>80</v>
@@ -9542,7 +9480,7 @@
         <v>80</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>503</v>
+        <v>491</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>81</v>
@@ -9551,39 +9489,39 @@
         <v>93</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>508</v>
+        <v>495</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>509</v>
+        <v>496</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>510</v>
+        <v>497</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>511</v>
+        <v>498</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP61" t="s" s="2">
-        <v>268</v>
+        <v>80</v>
       </c>
       <c r="AQ61" t="s" s="2">
-        <v>512</v>
+        <v>499</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>513</v>
+        <v>500</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>513</v>
+        <v>500</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9606,19 +9544,19 @@
         <v>80</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>515</v>
+        <v>502</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>516</v>
+        <v>503</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>517</v>
+        <v>504</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>80</v>
@@ -9643,11 +9581,11 @@
         <v>80</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="Y62" s="2"/>
       <c r="Z62" t="s" s="2">
-        <v>518</v>
+        <v>505</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>80</v>
@@ -9665,7 +9603,7 @@
         <v>80</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>513</v>
+        <v>500</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>81</v>
@@ -9674,39 +9612,39 @@
         <v>93</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>508</v>
+        <v>495</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>509</v>
+        <v>496</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>510</v>
+        <v>497</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>509</v>
+        <v>496</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP62" t="s" s="2">
-        <v>268</v>
+        <v>80</v>
       </c>
       <c r="AQ62" t="s" s="2">
-        <v>519</v>
+        <v>506</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>520</v>
+        <v>507</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>520</v>
+        <v>507</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9729,17 +9667,15 @@
         <v>80</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>521</v>
+        <v>508</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>274</v>
-      </c>
+        <v>509</v>
+      </c>
+      <c r="N63" s="2"/>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>80</v>
@@ -9788,7 +9724,7 @@
         <v>80</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>520</v>
+        <v>507</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>81</v>
@@ -9797,22 +9733,22 @@
         <v>93</v>
       </c>
       <c r="AI63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AJ63" t="s" s="2">
-        <v>275</v>
-      </c>
       <c r="AK63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>80</v>
@@ -9821,15 +9757,15 @@
         <v>80</v>
       </c>
       <c r="AQ63" t="s" s="2">
-        <v>523</v>
+        <v>510</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>524</v>
+        <v>511</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>524</v>
+        <v>511</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9852,16 +9788,16 @@
         <v>80</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>525</v>
+        <v>512</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>526</v>
+        <v>513</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>527</v>
+        <v>514</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>528</v>
+        <v>515</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -9911,7 +9847,7 @@
         <v>80</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>524</v>
+        <v>511</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>81</v>
@@ -9920,22 +9856,22 @@
         <v>82</v>
       </c>
       <c r="AI64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AJ64" t="s" s="2">
-        <v>275</v>
-      </c>
       <c r="AK64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>529</v>
+        <v>516</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>530</v>
+        <v>517</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>531</v>
+        <v>518</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>80</v>
@@ -9944,7 +9880,7 @@
         <v>80</v>
       </c>
       <c r="AQ64" t="s" s="2">
-        <v>532</v>
+        <v>519</v>
       </c>
     </row>
   </sheetData>

--- a/main/ig/StructureDefinition-tddui-documentreference.xlsx
+++ b/main/ig/StructureDefinition-tddui-documentreference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-14T09:46:04+00:00</t>
+    <t>2024-11-14T09:47:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-documentreference.xlsx
+++ b/main/ig/StructureDefinition-tddui-documentreference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-14T09:47:37+00:00</t>
+    <t>2024-11-14T09:50:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-documentreference.xlsx
+++ b/main/ig/StructureDefinition-tddui-documentreference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-14T09:50:14+00:00</t>
+    <t>2024-11-14T09:51:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-documentreference.xlsx
+++ b/main/ig/StructureDefinition-tddui-documentreference.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2527" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2537" uniqueCount="533">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-14T09:51:07+00:00</t>
+    <t>2024-11-14T09:56:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -281,7 +281,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
+dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -337,10 +337,17 @@
     <t>Resource.meta</t>
   </si>
   <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
+    <t>N/A</t>
+  </si>
+  <si>
     <t>DocumentReference.meta.id</t>
   </si>
   <si>
@@ -498,6 +505,12 @@
     <t>Meta.security</t>
   </si>
   <si>
+    <t>CV</t>
+  </si>
+  <si>
+    <t>CE/CNE/CWE subset one of the sets of component 1-3 or 4-6</t>
+  </si>
+  <si>
     <t>DocumentReference.meta.tag</t>
   </si>
   <si>
@@ -612,9 +625,6 @@
   </si>
   <si>
     <t>DomainResource.contained</t>
-  </si>
-  <si>
-    <t>N/A</t>
   </si>
   <si>
     <t>DocumentReference.extension</t>
@@ -848,6 +858,9 @@
     <t>Derived from a mapping of /ClinicalDocument/code/@code to an Affinity Domain specified coded value to use and coding system. Affinity Domains are encouraged to use the appropriate value for Type of Service, based on the LOINC Type of Service (see Page 53 of the LOINC User's Manual). Must be consistent with /ClinicalDocument/code/@code</t>
   </si>
   <si>
+    <t>CE/CNE/CWE</t>
+  </si>
+  <si>
     <t>DocumentEntry.class</t>
   </si>
   <si>
@@ -864,6 +877,13 @@
     <t>Who or what the document is about. The document can be about a person, (patient or healthcare practitioner), a device (e.g. a machine) or even a group of subjects (such as a document about a herd of farm animals, or a set of patients that share a common exposure).</t>
   </si>
   <si>
+    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ref-1:SHALL have a contained resource if a local reference is provided {reference.startsWith('#').not() or (reference.substring(1).trace('url') in %rootResource.contained.id.trace('ids'))}</t>
+  </si>
+  <si>
     <t>Event.subject</t>
   </si>
   <si>
@@ -1197,6 +1217,13 @@
   </si>
   <si>
     <t>The document or URL of the document along with critical metadata to prove content has integrity.</t>
+  </si>
+  <si>
+    <t>When providing a summary view (for example with Observation.value[x]) Attachment should be represented with a brief display text such as "Signed Procedure Consent".</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+att-1:If the Attachment has data, it SHALL have a contentType {data.empty() or contentType.exists()}</t>
   </si>
   <si>
     <t>Composition.language, 
@@ -1226,6 +1253,9 @@
   </si>
   <si>
     <t>Identifies the type of the data in the attachment and allows a method to be chosen to interpret or render the data. Includes mime type parameters such as charset where appropriate.</t>
+  </si>
+  <si>
+    <t>Note that FHIR strings SHALL NOT exceed 1MB in size</t>
   </si>
   <si>
     <t>Processors of the data need to be able to know how to interpret the data.</t>
@@ -1545,6 +1575,14 @@
     <t>The time period over which the service that is described by the document was provided.</t>
   </si>
   <si>
+    <t>A Period specifies a range of time; the context of use will specify whether the entire range applies (e.g. "the patient was an inpatient of the hospital for this time range") or one value from the range applies (e.g. "give to the patient between these two times").
+Period is not used for a duration (a measure of elapsed time). See [Duration](http://hl7.org/fhir/R4/datatypes.html#Duration).</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+per-1:If present, start SHALL have a lower value than end {start.hasValue().not() or end.hasValue().not() or (start &lt;= end)}</t>
+  </si>
+  <si>
     <t>Composition.event.period</t>
   </si>
   <si>
@@ -1558,6 +1596,9 @@
 @value</t>
   </si>
   <si>
+    <t>DR</t>
+  </si>
+  <si>
     <t>DocumentEntry.serviceStartTime, DocumentEntry.serviceStopTime</t>
   </si>
   <si>
@@ -1568,6 +1609,9 @@
   </si>
   <si>
     <t>The kind of facility where the patient was seen.</t>
+  </si>
+  <si>
+    <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.</t>
   </si>
   <si>
     <t>https://mos.esante.gouv.fr/NOS/JDV_J02-XdsHealthcareFacilityTypeCode-CISIS/FHIR/JDV-J02-XdsHealthcareFacilityTypeCode-CISIS</t>
@@ -2494,10 +2538,10 @@
         <v>93</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>80</v>
@@ -2506,7 +2550,7 @@
         <v>80</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>80</v>
+        <v>107</v>
       </c>
       <c r="AN4" t="s" s="2">
         <v>80</v>
@@ -2523,10 +2567,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2549,13 +2593,13 @@
         <v>80</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -2606,7 +2650,7 @@
         <v>80</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>81</v>
@@ -2627,7 +2671,7 @@
         <v>80</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AN5" t="s" s="2">
         <v>80</v>
@@ -2644,14 +2688,14 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
@@ -2670,16 +2714,16 @@
         <v>80</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2717,19 +2761,19 @@
         <v>80</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="AD6" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>81</v>
@@ -2738,10 +2782,10 @@
         <v>82</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>80</v>
@@ -2750,7 +2794,7 @@
         <v>80</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="AN6" t="s" s="2">
         <v>80</v>
@@ -2767,10 +2811,10 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -2796,13 +2840,13 @@
         <v>95</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2852,7 +2896,7 @@
         <v>80</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>81</v>
@@ -2861,10 +2905,10 @@
         <v>93</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>80</v>
@@ -2873,7 +2917,7 @@
         <v>80</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="AN7" t="s" s="2">
         <v>80</v>
@@ -2890,10 +2934,10 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -2916,16 +2960,16 @@
         <v>94</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2975,7 +3019,7 @@
         <v>80</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>81</v>
@@ -2984,10 +3028,10 @@
         <v>93</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>80</v>
@@ -2996,7 +3040,7 @@
         <v>80</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="AN8" t="s" s="2">
         <v>80</v>
@@ -3013,10 +3057,10 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -3039,16 +3083,16 @@
         <v>94</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -3098,7 +3142,7 @@
         <v>80</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>81</v>
@@ -3107,10 +3151,10 @@
         <v>93</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>80</v>
@@ -3119,7 +3163,7 @@
         <v>80</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="AN9" t="s" s="2">
         <v>80</v>
@@ -3136,10 +3180,10 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -3162,16 +3206,16 @@
         <v>94</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
@@ -3221,7 +3265,7 @@
         <v>80</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>81</v>
@@ -3230,10 +3274,10 @@
         <v>82</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>80</v>
@@ -3242,7 +3286,7 @@
         <v>80</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="AN10" t="s" s="2">
         <v>80</v>
@@ -3259,10 +3303,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -3285,16 +3329,16 @@
         <v>94</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -3320,13 +3364,13 @@
         <v>80</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AA11" t="s" s="2">
         <v>80</v>
@@ -3344,7 +3388,7 @@
         <v>80</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>81</v>
@@ -3353,10 +3397,10 @@
         <v>82</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>80</v>
@@ -3365,7 +3409,7 @@
         <v>80</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>80</v>
+        <v>157</v>
       </c>
       <c r="AN11" t="s" s="2">
         <v>80</v>
@@ -3374,7 +3418,7 @@
         <v>80</v>
       </c>
       <c r="AP11" t="s" s="2">
-        <v>80</v>
+        <v>158</v>
       </c>
       <c r="AQ11" t="s" s="2">
         <v>80</v>
@@ -3382,10 +3426,10 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3408,16 +3452,16 @@
         <v>94</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -3443,13 +3487,13 @@
         <v>80</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>80</v>
@@ -3467,7 +3511,7 @@
         <v>80</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>81</v>
@@ -3476,10 +3520,10 @@
         <v>82</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>80</v>
@@ -3488,7 +3532,7 @@
         <v>80</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>80</v>
+        <v>157</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>80</v>
@@ -3497,7 +3541,7 @@
         <v>80</v>
       </c>
       <c r="AP12" t="s" s="2">
-        <v>80</v>
+        <v>158</v>
       </c>
       <c r="AQ12" t="s" s="2">
         <v>80</v>
@@ -3505,10 +3549,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3531,16 +3575,16 @@
         <v>94</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3590,7 +3634,7 @@
         <v>80</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>81</v>
@@ -3599,10 +3643,10 @@
         <v>93</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>80</v>
@@ -3611,7 +3655,7 @@
         <v>80</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>80</v>
@@ -3628,10 +3672,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3654,16 +3698,16 @@
         <v>80</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3689,13 +3733,13 @@
         <v>80</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>80</v>
@@ -3713,7 +3757,7 @@
         <v>80</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>81</v>
@@ -3722,10 +3766,10 @@
         <v>93</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>80</v>
@@ -3734,7 +3778,7 @@
         <v>80</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>80</v>
@@ -3751,14 +3795,14 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -3777,16 +3821,16 @@
         <v>80</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3836,7 +3880,7 @@
         <v>80</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>81</v>
@@ -3845,10 +3889,10 @@
         <v>93</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>80</v>
@@ -3857,7 +3901,7 @@
         <v>80</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>80</v>
@@ -3874,14 +3918,14 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3900,16 +3944,16 @@
         <v>80</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3959,7 +4003,7 @@
         <v>80</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>81</v>
@@ -3980,7 +4024,7 @@
         <v>80</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>192</v>
+        <v>107</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>80</v>
@@ -3997,14 +4041,14 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -4023,16 +4067,16 @@
         <v>80</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -4070,19 +4114,19 @@
         <v>80</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>80</v>
+        <v>121</v>
       </c>
       <c r="AD17" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>81</v>
@@ -4091,10 +4135,10 @@
         <v>82</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>80</v>
@@ -4103,7 +4147,7 @@
         <v>80</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>192</v>
+        <v>107</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>80</v>
@@ -4120,10 +4164,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4146,13 +4190,13 @@
         <v>80</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -4191,19 +4235,19 @@
         <v>80</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>80</v>
+        <v>121</v>
       </c>
       <c r="AD18" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>81</v>
@@ -4212,10 +4256,10 @@
         <v>82</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>80</v>
@@ -4241,10 +4285,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4267,19 +4311,19 @@
         <v>94</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>80</v>
@@ -4328,7 +4372,7 @@
         <v>80</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>81</v>
@@ -4337,39 +4381,39 @@
         <v>93</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="AP19" t="s" s="2">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="AQ19" t="s" s="2">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4392,13 +4436,13 @@
         <v>94</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4449,7 +4493,7 @@
         <v>80</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>81</v>
@@ -4458,39 +4502,39 @@
         <v>82</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="AP20" t="s" s="2">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="AQ20" t="s" s="2">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4513,16 +4557,16 @@
         <v>94</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4533,7 +4577,7 @@
         <v>80</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="T21" t="s" s="2">
         <v>80</v>
@@ -4548,13 +4592,13 @@
         <v>80</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>80</v>
@@ -4572,7 +4616,7 @@
         <v>80</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>93</v>
@@ -4581,39 +4625,39 @@
         <v>93</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="AP21" t="s" s="2">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="AQ21" t="s" s="2">
-        <v>231</v>
+        <v>234</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4636,16 +4680,16 @@
         <v>94</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4671,13 +4715,13 @@
         <v>80</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>80</v>
@@ -4695,7 +4739,7 @@
         <v>80</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>81</v>
@@ -4704,28 +4748,28 @@
         <v>93</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="AP22" t="s" s="2">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="AQ22" t="s" s="2">
         <v>80</v>
@@ -4733,10 +4777,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4759,16 +4803,16 @@
         <v>94</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4794,11 +4838,11 @@
         <v>80</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="Y23" s="2"/>
       <c r="Z23" t="s" s="2">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>80</v>
@@ -4816,7 +4860,7 @@
         <v>80</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>81</v>
@@ -4825,43 +4869,43 @@
         <v>93</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="AP23" t="s" s="2">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="AQ23" t="s" s="2">
-        <v>254</v>
+        <v>257</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -4880,16 +4924,16 @@
         <v>94</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4915,11 +4959,11 @@
         <v>80</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="Y24" s="2"/>
       <c r="Z24" t="s" s="2">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>80</v>
@@ -4937,7 +4981,7 @@
         <v>80</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>81</v>
@@ -4946,39 +4990,39 @@
         <v>82</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="AP24" t="s" s="2">
-        <v>80</v>
+        <v>268</v>
       </c>
       <c r="AQ24" t="s" s="2">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5001,15 +5045,17 @@
         <v>94</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="N25" s="2"/>
+        <v>273</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>274</v>
+      </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>80</v>
@@ -5058,7 +5104,7 @@
         <v>80</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>81</v>
@@ -5067,43 +5113,43 @@
         <v>93</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>105</v>
+        <v>275</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="AP25" t="s" s="2">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="AQ25" t="s" s="2">
-        <v>276</v>
+        <v>282</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -5122,16 +5168,16 @@
         <v>94</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -5181,7 +5227,7 @@
         <v>80</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>81</v>
@@ -5190,25 +5236,25 @@
         <v>93</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="AP26" t="s" s="2">
         <v>80</v>
@@ -5219,10 +5265,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5245,16 +5291,16 @@
         <v>94</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -5304,7 +5350,7 @@
         <v>80</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>81</v>
@@ -5313,39 +5359,39 @@
         <v>82</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>105</v>
+        <v>275</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP27" t="s" s="2">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="AQ27" t="s" s="2">
-        <v>296</v>
+        <v>302</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5368,16 +5414,16 @@
         <v>80</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5427,7 +5473,7 @@
         <v>80</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>81</v>
@@ -5436,39 +5482,39 @@
         <v>93</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>105</v>
+        <v>275</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="AP28" t="s" s="2">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="AQ28" t="s" s="2">
-        <v>307</v>
+        <v>313</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5491,16 +5537,16 @@
         <v>80</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5550,7 +5596,7 @@
         <v>80</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>81</v>
@@ -5559,19 +5605,19 @@
         <v>93</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>105</v>
+        <v>275</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>80</v>
@@ -5588,10 +5634,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5614,16 +5660,16 @@
         <v>94</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5673,7 +5719,7 @@
         <v>80</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>81</v>
@@ -5682,19 +5728,19 @@
         <v>82</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>80</v>
@@ -5706,15 +5752,15 @@
         <v>80</v>
       </c>
       <c r="AQ30" t="s" s="2">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5737,13 +5783,13 @@
         <v>80</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5794,7 +5840,7 @@
         <v>80</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>81</v>
@@ -5815,7 +5861,7 @@
         <v>80</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>80</v>
@@ -5832,14 +5878,14 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -5858,16 +5904,16 @@
         <v>80</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5905,19 +5951,19 @@
         <v>80</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>80</v>
+        <v>121</v>
       </c>
       <c r="AD32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>81</v>
@@ -5926,10 +5972,10 @@
         <v>82</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>80</v>
@@ -5938,7 +5984,7 @@
         <v>80</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>80</v>
@@ -5955,14 +6001,14 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -5981,19 +6027,19 @@
         <v>94</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>80</v>
@@ -6042,7 +6088,7 @@
         <v>80</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>81</v>
@@ -6051,10 +6097,10 @@
         <v>82</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>80</v>
@@ -6063,7 +6109,7 @@
         <v>80</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>192</v>
+        <v>107</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>80</v>
@@ -6080,10 +6126,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6106,16 +6152,16 @@
         <v>94</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -6141,13 +6187,13 @@
         <v>80</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>80</v>
@@ -6165,7 +6211,7 @@
         <v>80</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>93</v>
@@ -6174,19 +6220,19 @@
         <v>93</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>80</v>
@@ -6198,15 +6244,15 @@
         <v>80</v>
       </c>
       <c r="AQ34" t="s" s="2">
-        <v>339</v>
+        <v>345</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6229,15 +6275,17 @@
         <v>94</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="N35" s="2"/>
+        <v>349</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>274</v>
+      </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>80</v>
@@ -6286,7 +6334,7 @@
         <v>80</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>93</v>
@@ -6295,19 +6343,19 @@
         <v>93</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>105</v>
+        <v>275</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>80</v>
@@ -6319,15 +6367,15 @@
         <v>80</v>
       </c>
       <c r="AQ35" t="s" s="2">
-        <v>346</v>
+        <v>352</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6350,19 +6398,19 @@
         <v>94</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>80</v>
@@ -6411,7 +6459,7 @@
         <v>80</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>81</v>
@@ -6420,10 +6468,10 @@
         <v>93</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>80</v>
@@ -6432,7 +6480,7 @@
         <v>80</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>80</v>
@@ -6441,18 +6489,18 @@
         <v>80</v>
       </c>
       <c r="AP36" t="s" s="2">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="AQ36" t="s" s="2">
-        <v>354</v>
+        <v>360</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6475,19 +6523,19 @@
         <v>94</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>80</v>
@@ -6512,13 +6560,13 @@
         <v>80</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>80</v>
@@ -6536,7 +6584,7 @@
         <v>80</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>81</v>
@@ -6545,39 +6593,39 @@
         <v>82</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP37" t="s" s="2">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="AQ37" t="s" s="2">
-        <v>365</v>
+        <v>371</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6600,13 +6648,13 @@
         <v>94</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6657,7 +6705,7 @@
         <v>80</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>93</v>
@@ -6666,19 +6714,19 @@
         <v>82</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>80</v>
@@ -6695,10 +6743,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6721,13 +6769,13 @@
         <v>80</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6778,7 +6826,7 @@
         <v>80</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>81</v>
@@ -6799,7 +6847,7 @@
         <v>80</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>80</v>
@@ -6816,14 +6864,14 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -6842,16 +6890,16 @@
         <v>80</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6889,19 +6937,19 @@
         <v>80</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>80</v>
+        <v>121</v>
       </c>
       <c r="AD40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>81</v>
@@ -6910,10 +6958,10 @@
         <v>82</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>80</v>
@@ -6922,7 +6970,7 @@
         <v>80</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>80</v>
@@ -6939,14 +6987,14 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -6965,19 +7013,19 @@
         <v>94</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>80</v>
@@ -7026,7 +7074,7 @@
         <v>80</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>81</v>
@@ -7035,10 +7083,10 @@
         <v>82</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>80</v>
@@ -7047,7 +7095,7 @@
         <v>80</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>192</v>
+        <v>107</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>80</v>
@@ -7064,10 +7112,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7090,15 +7138,17 @@
         <v>94</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="N42" s="2"/>
+        <v>383</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>384</v>
+      </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>80</v>
@@ -7147,7 +7197,7 @@
         <v>80</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>93</v>
@@ -7156,39 +7206,39 @@
         <v>93</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>105</v>
+        <v>385</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP42" t="s" s="2">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="AQ42" t="s" s="2">
-        <v>381</v>
+        <v>389</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7211,13 +7261,13 @@
         <v>80</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -7268,7 +7318,7 @@
         <v>80</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>81</v>
@@ -7289,7 +7339,7 @@
         <v>80</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>80</v>
@@ -7306,14 +7356,14 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -7332,16 +7382,16 @@
         <v>80</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7379,19 +7429,19 @@
         <v>80</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="AD44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>81</v>
@@ -7400,10 +7450,10 @@
         <v>82</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>80</v>
@@ -7412,7 +7462,7 @@
         <v>80</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>80</v>
@@ -7429,10 +7479,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7455,17 +7505,19 @@
         <v>94</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="N45" s="2"/>
+        <v>394</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>395</v>
+      </c>
       <c r="O45" t="s" s="2">
-        <v>387</v>
+        <v>396</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>80</v>
@@ -7478,7 +7530,7 @@
         <v>80</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="U45" t="s" s="2">
         <v>80</v>
@@ -7490,13 +7542,13 @@
         <v>80</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>389</v>
+        <v>398</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>390</v>
+        <v>399</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>80</v>
@@ -7514,7 +7566,7 @@
         <v>80</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>81</v>
@@ -7523,10 +7575,10 @@
         <v>93</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>80</v>
@@ -7535,7 +7587,7 @@
         <v>80</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>392</v>
+        <v>401</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>80</v>
@@ -7544,7 +7596,7 @@
         <v>80</v>
       </c>
       <c r="AP45" t="s" s="2">
-        <v>393</v>
+        <v>402</v>
       </c>
       <c r="AQ45" t="s" s="2">
         <v>80</v>
@@ -7552,10 +7604,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7578,17 +7630,19 @@
         <v>94</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="L46" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="N46" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="M46" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
-        <v>397</v>
+        <v>406</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>80</v>
@@ -7601,7 +7655,7 @@
         <v>80</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="U46" t="s" s="2">
         <v>80</v>
@@ -7613,13 +7667,13 @@
         <v>80</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>80</v>
@@ -7637,7 +7691,7 @@
         <v>80</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>81</v>
@@ -7646,10 +7700,10 @@
         <v>93</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>80</v>
@@ -7658,7 +7712,7 @@
         <v>80</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>80</v>
@@ -7675,10 +7729,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>401</v>
+        <v>410</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>401</v>
+        <v>410</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7701,19 +7755,19 @@
         <v>80</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>402</v>
+        <v>411</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>403</v>
+        <v>412</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>404</v>
+        <v>413</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>405</v>
+        <v>414</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>406</v>
+        <v>415</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>80</v>
@@ -7762,7 +7816,7 @@
         <v>80</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>407</v>
+        <v>416</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>81</v>
@@ -7771,10 +7825,10 @@
         <v>93</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>80</v>
@@ -7783,7 +7837,7 @@
         <v>80</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>408</v>
+        <v>417</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>80</v>
@@ -7792,7 +7846,7 @@
         <v>80</v>
       </c>
       <c r="AP47" t="s" s="2">
-        <v>409</v>
+        <v>418</v>
       </c>
       <c r="AQ47" t="s" s="2">
         <v>80</v>
@@ -7800,10 +7854,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7826,19 +7880,19 @@
         <v>94</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>412</v>
+        <v>421</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>414</v>
+        <v>423</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>415</v>
+        <v>424</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>80</v>
@@ -7851,7 +7905,7 @@
         <v>80</v>
       </c>
       <c r="T48" t="s" s="2">
-        <v>416</v>
+        <v>425</v>
       </c>
       <c r="U48" t="s" s="2">
         <v>80</v>
@@ -7887,7 +7941,7 @@
         <v>80</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>417</v>
+        <v>426</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>81</v>
@@ -7896,10 +7950,10 @@
         <v>93</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>80</v>
@@ -7908,7 +7962,7 @@
         <v>80</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>80</v>
@@ -7917,7 +7971,7 @@
         <v>80</v>
       </c>
       <c r="AP48" t="s" s="2">
-        <v>419</v>
+        <v>428</v>
       </c>
       <c r="AQ48" t="s" s="2">
         <v>80</v>
@@ -7925,10 +7979,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>420</v>
+        <v>429</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>420</v>
+        <v>429</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7951,19 +8005,19 @@
         <v>94</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>421</v>
+        <v>430</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>422</v>
+        <v>431</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>425</v>
+        <v>434</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>80</v>
@@ -8012,7 +8066,7 @@
         <v>80</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>426</v>
+        <v>435</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>81</v>
@@ -8021,10 +8075,10 @@
         <v>93</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>80</v>
@@ -8033,7 +8087,7 @@
         <v>80</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>427</v>
+        <v>436</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>80</v>
@@ -8050,10 +8104,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>428</v>
+        <v>437</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>428</v>
+        <v>437</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8076,19 +8130,19 @@
         <v>94</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>402</v>
+        <v>411</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>429</v>
+        <v>438</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>430</v>
+        <v>439</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>431</v>
+        <v>440</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>432</v>
+        <v>441</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>80</v>
@@ -8137,7 +8191,7 @@
         <v>80</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>433</v>
+        <v>442</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>81</v>
@@ -8146,10 +8200,10 @@
         <v>93</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>80</v>
@@ -8158,7 +8212,7 @@
         <v>80</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>80</v>
@@ -8175,10 +8229,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>435</v>
+        <v>444</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>435</v>
+        <v>444</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8201,17 +8255,19 @@
         <v>94</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>436</v>
+        <v>445</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="N51" s="2"/>
+        <v>446</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>395</v>
+      </c>
       <c r="O51" t="s" s="2">
-        <v>438</v>
+        <v>447</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>80</v>
@@ -8224,7 +8280,7 @@
         <v>80</v>
       </c>
       <c r="T51" t="s" s="2">
-        <v>439</v>
+        <v>448</v>
       </c>
       <c r="U51" t="s" s="2">
         <v>80</v>
@@ -8260,7 +8316,7 @@
         <v>80</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>440</v>
+        <v>449</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>81</v>
@@ -8269,10 +8325,10 @@
         <v>93</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>80</v>
@@ -8281,7 +8337,7 @@
         <v>80</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>441</v>
+        <v>450</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>80</v>
@@ -8298,10 +8354,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8324,17 +8380,17 @@
         <v>94</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>443</v>
+        <v>452</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>444</v>
+        <v>453</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
-        <v>446</v>
+        <v>455</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>80</v>
@@ -8383,7 +8439,7 @@
         <v>80</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>81</v>
@@ -8392,10 +8448,10 @@
         <v>93</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>80</v>
@@ -8404,7 +8460,7 @@
         <v>80</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>427</v>
+        <v>436</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>80</v>
@@ -8421,10 +8477,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>448</v>
+        <v>457</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>448</v>
+        <v>457</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8447,16 +8503,16 @@
         <v>94</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>449</v>
+        <v>458</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>450</v>
+        <v>459</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>451</v>
+        <v>460</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -8482,11 +8538,11 @@
         <v>80</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="Y53" s="2"/>
       <c r="Z53" t="s" s="2">
-        <v>452</v>
+        <v>461</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>80</v>
@@ -8504,7 +8560,7 @@
         <v>80</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>448</v>
+        <v>457</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>81</v>
@@ -8513,39 +8569,39 @@
         <v>93</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>453</v>
+        <v>462</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>454</v>
+        <v>463</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>455</v>
+        <v>464</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP53" t="s" s="2">
-        <v>80</v>
+        <v>158</v>
       </c>
       <c r="AQ53" t="s" s="2">
-        <v>456</v>
+        <v>465</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>457</v>
+        <v>466</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>457</v>
+        <v>466</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8568,16 +8624,16 @@
         <v>94</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>458</v>
+        <v>467</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>459</v>
+        <v>468</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>460</v>
+        <v>469</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -8627,7 +8683,7 @@
         <v>80</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>457</v>
+        <v>466</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>81</v>
@@ -8636,10 +8692,10 @@
         <v>93</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>80</v>
@@ -8648,7 +8704,7 @@
         <v>80</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>80</v>
@@ -8665,10 +8721,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>462</v>
+        <v>471</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>462</v>
+        <v>471</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8691,13 +8747,13 @@
         <v>80</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8748,7 +8804,7 @@
         <v>80</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>81</v>
@@ -8769,7 +8825,7 @@
         <v>80</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>80</v>
@@ -8786,14 +8842,14 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>463</v>
+        <v>472</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>463</v>
+        <v>472</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -8812,16 +8868,16 @@
         <v>80</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8859,19 +8915,19 @@
         <v>80</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="AC56" t="s" s="2">
-        <v>80</v>
+        <v>121</v>
       </c>
       <c r="AD56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>81</v>
@@ -8880,10 +8936,10 @@
         <v>82</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>80</v>
@@ -8892,7 +8948,7 @@
         <v>80</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>80</v>
@@ -8909,14 +8965,14 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>464</v>
+        <v>473</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>464</v>
+        <v>473</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -8935,19 +8991,19 @@
         <v>94</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>80</v>
@@ -8996,7 +9052,7 @@
         <v>80</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>81</v>
@@ -9005,10 +9061,10 @@
         <v>82</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>80</v>
@@ -9017,7 +9073,7 @@
         <v>80</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>192</v>
+        <v>107</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>80</v>
@@ -9034,10 +9090,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>465</v>
+        <v>474</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>465</v>
+        <v>474</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9060,15 +9116,17 @@
         <v>80</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>466</v>
+        <v>475</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>467</v>
+        <v>476</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="N58" s="2"/>
+        <v>477</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>274</v>
+      </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>80</v>
@@ -9117,7 +9175,7 @@
         <v>80</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>465</v>
+        <v>474</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>81</v>
@@ -9126,25 +9184,25 @@
         <v>82</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>105</v>
+        <v>275</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>470</v>
+        <v>479</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>471</v>
+        <v>480</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>472</v>
+        <v>481</v>
       </c>
       <c r="AP58" t="s" s="2">
         <v>80</v>
@@ -9155,10 +9213,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>473</v>
+        <v>482</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>473</v>
+        <v>482</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9181,16 +9239,16 @@
         <v>80</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>474</v>
+        <v>483</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>475</v>
+        <v>484</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>476</v>
+        <v>485</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -9216,13 +9274,13 @@
         <v>80</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>477</v>
+        <v>486</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>478</v>
+        <v>487</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>80</v>
@@ -9240,7 +9298,7 @@
         <v>80</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>473</v>
+        <v>482</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>81</v>
@@ -9249,19 +9307,19 @@
         <v>82</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>479</v>
+        <v>488</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>480</v>
+        <v>489</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>481</v>
+        <v>490</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>80</v>
@@ -9270,18 +9328,18 @@
         <v>80</v>
       </c>
       <c r="AP59" t="s" s="2">
-        <v>80</v>
+        <v>268</v>
       </c>
       <c r="AQ59" t="s" s="2">
-        <v>482</v>
+        <v>491</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>483</v>
+        <v>492</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>483</v>
+        <v>492</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9304,15 +9362,17 @@
         <v>94</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>484</v>
+        <v>493</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>485</v>
+        <v>494</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="N60" s="2"/>
+        <v>495</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>496</v>
+      </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>80</v>
@@ -9361,7 +9421,7 @@
         <v>80</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>483</v>
+        <v>492</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>81</v>
@@ -9370,39 +9430,39 @@
         <v>93</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>105</v>
+        <v>497</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>487</v>
+        <v>498</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>488</v>
+        <v>499</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>489</v>
+        <v>500</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP60" t="s" s="2">
-        <v>80</v>
+        <v>501</v>
       </c>
       <c r="AQ60" t="s" s="2">
-        <v>490</v>
+        <v>502</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>491</v>
+        <v>503</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>491</v>
+        <v>503</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9425,15 +9485,17 @@
         <v>80</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>492</v>
+        <v>504</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="N61" s="2"/>
+        <v>505</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>506</v>
+      </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>80</v>
@@ -9458,11 +9520,11 @@
         <v>80</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="Y61" s="2"/>
       <c r="Z61" t="s" s="2">
-        <v>494</v>
+        <v>507</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>80</v>
@@ -9480,7 +9542,7 @@
         <v>80</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>491</v>
+        <v>503</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>81</v>
@@ -9489,39 +9551,39 @@
         <v>93</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>495</v>
+        <v>508</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>496</v>
+        <v>509</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>497</v>
+        <v>510</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>498</v>
+        <v>511</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP61" t="s" s="2">
-        <v>80</v>
+        <v>268</v>
       </c>
       <c r="AQ61" t="s" s="2">
-        <v>499</v>
+        <v>512</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>500</v>
+        <v>513</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>500</v>
+        <v>513</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9544,19 +9606,19 @@
         <v>80</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>501</v>
+        <v>514</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>502</v>
+        <v>515</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>503</v>
+        <v>516</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>504</v>
+        <v>517</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>80</v>
@@ -9581,11 +9643,11 @@
         <v>80</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="Y62" s="2"/>
       <c r="Z62" t="s" s="2">
-        <v>505</v>
+        <v>518</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>80</v>
@@ -9603,7 +9665,7 @@
         <v>80</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>500</v>
+        <v>513</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>81</v>
@@ -9612,39 +9674,39 @@
         <v>93</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>495</v>
+        <v>508</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>496</v>
+        <v>509</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>497</v>
+        <v>510</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>496</v>
+        <v>509</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP62" t="s" s="2">
-        <v>80</v>
+        <v>268</v>
       </c>
       <c r="AQ62" t="s" s="2">
-        <v>506</v>
+        <v>519</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>507</v>
+        <v>520</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>507</v>
+        <v>520</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9667,15 +9729,17 @@
         <v>80</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>508</v>
+        <v>521</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="N63" s="2"/>
+        <v>522</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>274</v>
+      </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>80</v>
@@ -9724,7 +9788,7 @@
         <v>80</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>507</v>
+        <v>520</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>81</v>
@@ -9733,22 +9797,22 @@
         <v>93</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>105</v>
+        <v>275</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>80</v>
@@ -9757,15 +9821,15 @@
         <v>80</v>
       </c>
       <c r="AQ63" t="s" s="2">
-        <v>510</v>
+        <v>523</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>511</v>
+        <v>524</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>511</v>
+        <v>524</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9788,16 +9852,16 @@
         <v>80</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>512</v>
+        <v>525</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>513</v>
+        <v>526</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>514</v>
+        <v>527</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>515</v>
+        <v>528</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -9847,7 +9911,7 @@
         <v>80</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>511</v>
+        <v>524</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>81</v>
@@ -9856,22 +9920,22 @@
         <v>82</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>105</v>
+        <v>275</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>516</v>
+        <v>529</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>517</v>
+        <v>530</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>518</v>
+        <v>531</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>80</v>
@@ -9880,7 +9944,7 @@
         <v>80</v>
       </c>
       <c r="AQ64" t="s" s="2">
-        <v>519</v>
+        <v>532</v>
       </c>
     </row>
   </sheetData>

--- a/main/ig/StructureDefinition-tddui-documentreference.xlsx
+++ b/main/ig/StructureDefinition-tddui-documentreference.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2537" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2527" uniqueCount="520">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-14T09:56:36+00:00</t>
+    <t>2024-12-03T16:19:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -281,7 +281,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -337,17 +337,10 @@
     <t>Resource.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>DocumentReference.meta.id</t>
   </si>
   <si>
@@ -505,12 +498,6 @@
     <t>Meta.security</t>
   </si>
   <si>
-    <t>CV</t>
-  </si>
-  <si>
-    <t>CE/CNE/CWE subset one of the sets of component 1-3 or 4-6</t>
-  </si>
-  <si>
     <t>DocumentReference.meta.tag</t>
   </si>
   <si>
@@ -625,6 +612,9 @@
   </si>
   <si>
     <t>DomainResource.contained</t>
+  </si>
+  <si>
+    <t>N/A</t>
   </si>
   <si>
     <t>DocumentReference.extension</t>
@@ -858,9 +848,6 @@
     <t>Derived from a mapping of /ClinicalDocument/code/@code to an Affinity Domain specified coded value to use and coding system. Affinity Domains are encouraged to use the appropriate value for Type of Service, based on the LOINC Type of Service (see Page 53 of the LOINC User's Manual). Must be consistent with /ClinicalDocument/code/@code</t>
   </si>
   <si>
-    <t>CE/CNE/CWE</t>
-  </si>
-  <si>
     <t>DocumentEntry.class</t>
   </si>
   <si>
@@ -877,13 +864,6 @@
     <t>Who or what the document is about. The document can be about a person, (patient or healthcare practitioner), a device (e.g. a machine) or even a group of subjects (such as a document about a herd of farm animals, or a set of patients that share a common exposure).</t>
   </si>
   <si>
-    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ref-1:SHALL have a contained resource if a local reference is provided {reference.startsWith('#').not() or (reference.substring(1).trace('url') in %rootResource.contained.id.trace('ids'))}</t>
-  </si>
-  <si>
     <t>Event.subject</t>
   </si>
   <si>
@@ -1217,13 +1197,6 @@
   </si>
   <si>
     <t>The document or URL of the document along with critical metadata to prove content has integrity.</t>
-  </si>
-  <si>
-    <t>When providing a summary view (for example with Observation.value[x]) Attachment should be represented with a brief display text such as "Signed Procedure Consent".</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-att-1:If the Attachment has data, it SHALL have a contentType {data.empty() or contentType.exists()}</t>
   </si>
   <si>
     <t>Composition.language, 
@@ -1253,9 +1226,6 @@
   </si>
   <si>
     <t>Identifies the type of the data in the attachment and allows a method to be chosen to interpret or render the data. Includes mime type parameters such as charset where appropriate.</t>
-  </si>
-  <si>
-    <t>Note that FHIR strings SHALL NOT exceed 1MB in size</t>
   </si>
   <si>
     <t>Processors of the data need to be able to know how to interpret the data.</t>
@@ -1575,14 +1545,6 @@
     <t>The time period over which the service that is described by the document was provided.</t>
   </si>
   <si>
-    <t>A Period specifies a range of time; the context of use will specify whether the entire range applies (e.g. "the patient was an inpatient of the hospital for this time range") or one value from the range applies (e.g. "give to the patient between these two times").
-Period is not used for a duration (a measure of elapsed time). See [Duration](http://hl7.org/fhir/R4/datatypes.html#Duration).</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-per-1:If present, start SHALL have a lower value than end {start.hasValue().not() or end.hasValue().not() or (start &lt;= end)}</t>
-  </si>
-  <si>
     <t>Composition.event.period</t>
   </si>
   <si>
@@ -1596,9 +1558,6 @@
 @value</t>
   </si>
   <si>
-    <t>DR</t>
-  </si>
-  <si>
     <t>DocumentEntry.serviceStartTime, DocumentEntry.serviceStopTime</t>
   </si>
   <si>
@@ -1609,9 +1568,6 @@
   </si>
   <si>
     <t>The kind of facility where the patient was seen.</t>
-  </si>
-  <si>
-    <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.</t>
   </si>
   <si>
     <t>https://mos.esante.gouv.fr/NOS/JDV_J02-XdsHealthcareFacilityTypeCode-CISIS/FHIR/JDV-J02-XdsHealthcareFacilityTypeCode-CISIS</t>
@@ -2538,11 +2494,11 @@
         <v>93</v>
       </c>
       <c r="AI4" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ4" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AJ4" t="s" s="2">
-        <v>106</v>
-      </c>
       <c r="AK4" t="s" s="2">
         <v>80</v>
       </c>
@@ -2550,7 +2506,7 @@
         <v>80</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="AN4" t="s" s="2">
         <v>80</v>
@@ -2567,10 +2523,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2593,13 +2549,13 @@
         <v>80</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="L5" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="M5" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="L5" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>111</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -2650,7 +2606,7 @@
         <v>80</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>81</v>
@@ -2671,7 +2627,7 @@
         <v>80</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AN5" t="s" s="2">
         <v>80</v>
@@ -2688,14 +2644,14 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
@@ -2714,16 +2670,16 @@
         <v>80</v>
       </c>
       <c r="K6" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="L6" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="M6" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="N6" t="s" s="2">
         <v>117</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="N6" t="s" s="2">
-        <v>119</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2761,19 +2717,19 @@
         <v>80</v>
       </c>
       <c r="AB6" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="AC6" t="s" s="2">
+      <c r="AF6" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="AF6" t="s" s="2">
-        <v>123</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>81</v>
@@ -2782,10 +2738,10 @@
         <v>82</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>80</v>
@@ -2794,7 +2750,7 @@
         <v>80</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="AN6" t="s" s="2">
         <v>80</v>
@@ -2811,10 +2767,10 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -2840,13 +2796,13 @@
         <v>95</v>
       </c>
       <c r="L7" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="M7" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="N7" t="s" s="2">
         <v>126</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="N7" t="s" s="2">
-        <v>128</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2896,7 +2852,7 @@
         <v>80</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>81</v>
@@ -2905,11 +2861,11 @@
         <v>93</v>
       </c>
       <c r="AI7" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AJ7" t="s" s="2">
-        <v>106</v>
-      </c>
       <c r="AK7" t="s" s="2">
         <v>80</v>
       </c>
@@ -2917,7 +2873,7 @@
         <v>80</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="AN7" t="s" s="2">
         <v>80</v>
@@ -2934,10 +2890,10 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -2960,16 +2916,16 @@
         <v>94</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="L8" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="M8" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="N8" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>134</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -3019,7 +2975,7 @@
         <v>80</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>81</v>
@@ -3028,11 +2984,11 @@
         <v>93</v>
       </c>
       <c r="AI8" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ8" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AJ8" t="s" s="2">
-        <v>106</v>
-      </c>
       <c r="AK8" t="s" s="2">
         <v>80</v>
       </c>
@@ -3040,7 +2996,7 @@
         <v>80</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="AN8" t="s" s="2">
         <v>80</v>
@@ -3057,10 +3013,10 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -3083,16 +3039,16 @@
         <v>94</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="L9" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="M9" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="N9" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>140</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -3142,7 +3098,7 @@
         <v>80</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>81</v>
@@ -3151,11 +3107,11 @@
         <v>93</v>
       </c>
       <c r="AI9" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ9" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AJ9" t="s" s="2">
-        <v>106</v>
-      </c>
       <c r="AK9" t="s" s="2">
         <v>80</v>
       </c>
@@ -3163,7 +3119,7 @@
         <v>80</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="AN9" t="s" s="2">
         <v>80</v>
@@ -3180,10 +3136,10 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -3206,16 +3162,16 @@
         <v>94</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="L10" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="M10" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="N10" t="s" s="2">
         <v>144</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>146</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
@@ -3265,7 +3221,7 @@
         <v>80</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>81</v>
@@ -3274,11 +3230,11 @@
         <v>82</v>
       </c>
       <c r="AI10" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ10" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AJ10" t="s" s="2">
-        <v>106</v>
-      </c>
       <c r="AK10" t="s" s="2">
         <v>80</v>
       </c>
@@ -3286,7 +3242,7 @@
         <v>80</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="AN10" t="s" s="2">
         <v>80</v>
@@ -3303,10 +3259,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -3329,16 +3285,16 @@
         <v>94</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="L11" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="M11" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="N11" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>152</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -3364,31 +3320,31 @@
         <v>80</v>
       </c>
       <c r="X11" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="Y11" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="Z11" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="Y11" t="s" s="2">
+      <c r="AA11" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB11" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC11" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD11" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE11" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF11" t="s" s="2">
         <v>154</v>
-      </c>
-      <c r="Z11" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="AA11" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB11" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC11" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD11" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE11" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF11" t="s" s="2">
-        <v>156</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>81</v>
@@ -3397,11 +3353,11 @@
         <v>82</v>
       </c>
       <c r="AI11" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ11" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AJ11" t="s" s="2">
-        <v>106</v>
-      </c>
       <c r="AK11" t="s" s="2">
         <v>80</v>
       </c>
@@ -3409,7 +3365,7 @@
         <v>80</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>157</v>
+        <v>80</v>
       </c>
       <c r="AN11" t="s" s="2">
         <v>80</v>
@@ -3418,7 +3374,7 @@
         <v>80</v>
       </c>
       <c r="AP11" t="s" s="2">
-        <v>158</v>
+        <v>80</v>
       </c>
       <c r="AQ11" t="s" s="2">
         <v>80</v>
@@ -3426,10 +3382,10 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3452,16 +3408,16 @@
         <v>94</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -3487,13 +3443,13 @@
         <v>80</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>80</v>
@@ -3511,7 +3467,7 @@
         <v>80</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>81</v>
@@ -3520,11 +3476,11 @@
         <v>82</v>
       </c>
       <c r="AI12" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ12" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AJ12" t="s" s="2">
-        <v>106</v>
-      </c>
       <c r="AK12" t="s" s="2">
         <v>80</v>
       </c>
@@ -3532,7 +3488,7 @@
         <v>80</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>157</v>
+        <v>80</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>80</v>
@@ -3541,7 +3497,7 @@
         <v>80</v>
       </c>
       <c r="AP12" t="s" s="2">
-        <v>158</v>
+        <v>80</v>
       </c>
       <c r="AQ12" t="s" s="2">
         <v>80</v>
@@ -3549,10 +3505,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3575,16 +3531,16 @@
         <v>94</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3634,7 +3590,7 @@
         <v>80</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>81</v>
@@ -3643,11 +3599,11 @@
         <v>93</v>
       </c>
       <c r="AI13" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AJ13" t="s" s="2">
-        <v>106</v>
-      </c>
       <c r="AK13" t="s" s="2">
         <v>80</v>
       </c>
@@ -3655,7 +3611,7 @@
         <v>80</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>80</v>
@@ -3672,10 +3628,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3698,16 +3654,16 @@
         <v>80</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3733,13 +3689,13 @@
         <v>80</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>80</v>
@@ -3757,7 +3713,7 @@
         <v>80</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>81</v>
@@ -3766,11 +3722,11 @@
         <v>93</v>
       </c>
       <c r="AI14" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AJ14" t="s" s="2">
-        <v>106</v>
-      </c>
       <c r="AK14" t="s" s="2">
         <v>80</v>
       </c>
@@ -3778,7 +3734,7 @@
         <v>80</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>80</v>
@@ -3795,14 +3751,14 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -3821,16 +3777,16 @@
         <v>80</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3880,7 +3836,7 @@
         <v>80</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>81</v>
@@ -3889,11 +3845,11 @@
         <v>93</v>
       </c>
       <c r="AI15" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AJ15" t="s" s="2">
-        <v>106</v>
-      </c>
       <c r="AK15" t="s" s="2">
         <v>80</v>
       </c>
@@ -3901,7 +3857,7 @@
         <v>80</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>80</v>
@@ -3918,14 +3874,14 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3944,16 +3900,16 @@
         <v>80</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -4003,7 +3959,7 @@
         <v>80</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>81</v>
@@ -4024,7 +3980,7 @@
         <v>80</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>107</v>
+        <v>192</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>80</v>
@@ -4041,14 +3997,14 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -4067,16 +4023,16 @@
         <v>80</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="L17" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="N17" t="s" s="2">
         <v>117</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>119</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -4114,19 +4070,19 @@
         <v>80</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>121</v>
+        <v>80</v>
       </c>
       <c r="AD17" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>122</v>
+        <v>80</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>81</v>
@@ -4135,10 +4091,10 @@
         <v>82</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>80</v>
@@ -4147,7 +4103,7 @@
         <v>80</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>107</v>
+        <v>192</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>80</v>
@@ -4164,10 +4120,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4190,13 +4146,13 @@
         <v>80</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -4235,19 +4191,19 @@
         <v>80</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>121</v>
+        <v>80</v>
       </c>
       <c r="AD18" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>122</v>
+        <v>80</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>81</v>
@@ -4256,10 +4212,10 @@
         <v>82</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>80</v>
@@ -4285,10 +4241,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4311,19 +4267,19 @@
         <v>94</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="L19" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="M19" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="N19" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="O19" t="s" s="2">
         <v>205</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>208</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>80</v>
@@ -4372,7 +4328,7 @@
         <v>80</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>81</v>
@@ -4381,39 +4337,39 @@
         <v>93</v>
       </c>
       <c r="AI19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AJ19" t="s" s="2">
-        <v>106</v>
-      </c>
       <c r="AK19" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="AL19" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AM19" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AN19" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="AL19" t="s" s="2">
+      <c r="AO19" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="AM19" t="s" s="2">
+      <c r="AP19" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="AN19" t="s" s="2">
+      <c r="AQ19" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="AO19" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="AP19" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="AQ19" t="s" s="2">
-        <v>215</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4436,13 +4392,13 @@
         <v>94</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4493,7 +4449,7 @@
         <v>80</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>81</v>
@@ -4502,39 +4458,39 @@
         <v>82</v>
       </c>
       <c r="AI20" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AJ20" t="s" s="2">
-        <v>106</v>
-      </c>
       <c r="AK20" t="s" s="2">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="AP20" t="s" s="2">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="AQ20" t="s" s="2">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4557,16 +4513,16 @@
         <v>94</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4577,29 +4533,29 @@
         <v>80</v>
       </c>
       <c r="S21" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="T21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X21" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="Y21" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="Z21" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="T21" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U21" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V21" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W21" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X21" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="Y21" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="Z21" t="s" s="2">
-        <v>229</v>
-      </c>
       <c r="AA21" t="s" s="2">
         <v>80</v>
       </c>
@@ -4616,7 +4572,7 @@
         <v>80</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>93</v>
@@ -4625,39 +4581,39 @@
         <v>93</v>
       </c>
       <c r="AI21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AJ21" t="s" s="2">
-        <v>106</v>
-      </c>
       <c r="AK21" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="AL21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM21" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="AN21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO21" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="AP21" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="AL21" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM21" t="s" s="2">
+      <c r="AQ21" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="AN21" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO21" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="AP21" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="AQ21" t="s" s="2">
-        <v>234</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4680,16 +4636,16 @@
         <v>94</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4715,13 +4671,13 @@
         <v>80</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>80</v>
@@ -4739,7 +4695,7 @@
         <v>80</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>81</v>
@@ -4748,28 +4704,28 @@
         <v>93</v>
       </c>
       <c r="AI22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AJ22" t="s" s="2">
-        <v>106</v>
-      </c>
       <c r="AK22" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="AP22" t="s" s="2">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="AQ22" t="s" s="2">
         <v>80</v>
@@ -4777,10 +4733,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4803,16 +4759,16 @@
         <v>94</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="L23" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="N23" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>248</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4838,11 +4794,11 @@
         <v>80</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="Y23" s="2"/>
       <c r="Z23" t="s" s="2">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>80</v>
@@ -4860,7 +4816,7 @@
         <v>80</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>81</v>
@@ -4869,43 +4825,43 @@
         <v>93</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="AJ23" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="AK23" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="AL23" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="AM23" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="AK23" t="s" s="2">
+      <c r="AN23" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="AL23" t="s" s="2">
+      <c r="AO23" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="AM23" t="s" s="2">
+      <c r="AP23" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="AN23" t="s" s="2">
+      <c r="AQ23" t="s" s="2">
         <v>254</v>
-      </c>
-      <c r="AO23" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="AP23" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="AQ23" t="s" s="2">
-        <v>257</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -4924,16 +4880,16 @@
         <v>94</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4959,11 +4915,11 @@
         <v>80</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="Y24" s="2"/>
       <c r="Z24" t="s" s="2">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>80</v>
@@ -4981,7 +4937,7 @@
         <v>80</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>81</v>
@@ -4990,39 +4946,39 @@
         <v>82</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="AJ24" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="AK24" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL24" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AM24" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="AN24" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="AK24" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL24" t="s" s="2">
+      <c r="AO24" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AP24" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AQ24" t="s" s="2">
         <v>265</v>
-      </c>
-      <c r="AM24" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="AN24" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="AO24" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="AP24" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="AQ24" t="s" s="2">
-        <v>269</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5045,17 +5001,15 @@
         <v>94</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>274</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>80</v>
@@ -5104,7 +5058,7 @@
         <v>80</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>81</v>
@@ -5113,43 +5067,43 @@
         <v>93</v>
       </c>
       <c r="AI25" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AJ25" t="s" s="2">
+      <c r="AK25" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AL25" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="AM25" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="AN25" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="AO25" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="AP25" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="AK25" t="s" s="2">
+      <c r="AQ25" t="s" s="2">
         <v>276</v>
-      </c>
-      <c r="AL25" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="AM25" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="AO25" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="AP25" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="AQ25" t="s" s="2">
-        <v>282</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -5168,16 +5122,16 @@
         <v>94</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -5227,7 +5181,7 @@
         <v>80</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>81</v>
@@ -5236,25 +5190,25 @@
         <v>93</v>
       </c>
       <c r="AI26" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AJ26" t="s" s="2">
-        <v>106</v>
-      </c>
       <c r="AK26" t="s" s="2">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="AP26" t="s" s="2">
         <v>80</v>
@@ -5265,10 +5219,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5291,16 +5245,16 @@
         <v>94</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -5350,7 +5304,7 @@
         <v>80</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>81</v>
@@ -5359,39 +5313,39 @@
         <v>82</v>
       </c>
       <c r="AI27" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AJ27" t="s" s="2">
-        <v>275</v>
-      </c>
       <c r="AK27" t="s" s="2">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP27" t="s" s="2">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="AQ27" t="s" s="2">
-        <v>302</v>
+        <v>296</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5414,16 +5368,16 @@
         <v>80</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5473,7 +5427,7 @@
         <v>80</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>81</v>
@@ -5482,39 +5436,39 @@
         <v>93</v>
       </c>
       <c r="AI28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AJ28" t="s" s="2">
-        <v>275</v>
-      </c>
       <c r="AK28" t="s" s="2">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="AP28" t="s" s="2">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="AQ28" t="s" s="2">
-        <v>313</v>
+        <v>307</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5537,16 +5491,16 @@
         <v>80</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5596,7 +5550,7 @@
         <v>80</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>81</v>
@@ -5605,19 +5559,19 @@
         <v>93</v>
       </c>
       <c r="AI29" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AJ29" t="s" s="2">
-        <v>275</v>
-      </c>
       <c r="AK29" t="s" s="2">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>80</v>
@@ -5634,10 +5588,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5660,16 +5614,16 @@
         <v>94</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5719,7 +5673,7 @@
         <v>80</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>81</v>
@@ -5728,19 +5682,19 @@
         <v>82</v>
       </c>
       <c r="AI30" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AJ30" t="s" s="2">
-        <v>106</v>
-      </c>
       <c r="AK30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>80</v>
@@ -5752,15 +5706,15 @@
         <v>80</v>
       </c>
       <c r="AQ30" t="s" s="2">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5783,13 +5737,13 @@
         <v>80</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="L31" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="M31" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>111</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5840,7 +5794,7 @@
         <v>80</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>81</v>
@@ -5861,7 +5815,7 @@
         <v>80</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>80</v>
@@ -5878,14 +5832,14 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -5904,16 +5858,16 @@
         <v>80</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="L32" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>117</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>119</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5951,19 +5905,19 @@
         <v>80</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="AC32" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE32" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF32" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="AD32" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE32" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="AF32" t="s" s="2">
-        <v>123</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>81</v>
@@ -5972,10 +5926,10 @@
         <v>82</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>80</v>
@@ -5984,7 +5938,7 @@
         <v>80</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>80</v>
@@ -6001,14 +5955,14 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -6027,19 +5981,19 @@
         <v>94</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>80</v>
@@ -6088,7 +6042,7 @@
         <v>80</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>81</v>
@@ -6097,10 +6051,10 @@
         <v>82</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>80</v>
@@ -6109,7 +6063,7 @@
         <v>80</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>107</v>
+        <v>192</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>80</v>
@@ -6126,10 +6080,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6152,16 +6106,16 @@
         <v>94</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -6187,13 +6141,13 @@
         <v>80</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>80</v>
@@ -6211,7 +6165,7 @@
         <v>80</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>93</v>
@@ -6220,19 +6174,19 @@
         <v>93</v>
       </c>
       <c r="AI34" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AJ34" t="s" s="2">
-        <v>106</v>
-      </c>
       <c r="AK34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>80</v>
@@ -6244,15 +6198,15 @@
         <v>80</v>
       </c>
       <c r="AQ34" t="s" s="2">
-        <v>345</v>
+        <v>339</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6275,17 +6229,15 @@
         <v>94</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>274</v>
-      </c>
+        <v>343</v>
+      </c>
+      <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>80</v>
@@ -6334,7 +6286,7 @@
         <v>80</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>93</v>
@@ -6343,19 +6295,19 @@
         <v>93</v>
       </c>
       <c r="AI35" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AJ35" t="s" s="2">
-        <v>275</v>
-      </c>
       <c r="AK35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>80</v>
@@ -6367,15 +6319,15 @@
         <v>80</v>
       </c>
       <c r="AQ35" t="s" s="2">
-        <v>352</v>
+        <v>346</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6398,19 +6350,19 @@
         <v>94</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>80</v>
@@ -6459,7 +6411,7 @@
         <v>80</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>81</v>
@@ -6468,11 +6420,11 @@
         <v>93</v>
       </c>
       <c r="AI36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AJ36" t="s" s="2">
-        <v>106</v>
-      </c>
       <c r="AK36" t="s" s="2">
         <v>80</v>
       </c>
@@ -6480,7 +6432,7 @@
         <v>80</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>80</v>
@@ -6489,18 +6441,18 @@
         <v>80</v>
       </c>
       <c r="AP36" t="s" s="2">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="AQ36" t="s" s="2">
-        <v>360</v>
+        <v>354</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6523,19 +6475,19 @@
         <v>94</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>80</v>
@@ -6560,14 +6512,14 @@
         <v>80</v>
       </c>
       <c r="X37" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="Y37" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="Z37" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="Y37" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="Z37" t="s" s="2">
-        <v>155</v>
-      </c>
       <c r="AA37" t="s" s="2">
         <v>80</v>
       </c>
@@ -6584,7 +6536,7 @@
         <v>80</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>81</v>
@@ -6593,39 +6545,39 @@
         <v>82</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP37" t="s" s="2">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="AQ37" t="s" s="2">
-        <v>371</v>
+        <v>365</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6648,13 +6600,13 @@
         <v>94</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6705,7 +6657,7 @@
         <v>80</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>93</v>
@@ -6714,19 +6666,19 @@
         <v>82</v>
       </c>
       <c r="AI38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AJ38" t="s" s="2">
-        <v>106</v>
-      </c>
       <c r="AK38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>80</v>
@@ -6743,10 +6695,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6769,13 +6721,13 @@
         <v>80</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="L39" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="M39" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>111</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6826,7 +6778,7 @@
         <v>80</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>81</v>
@@ -6847,7 +6799,7 @@
         <v>80</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>80</v>
@@ -6864,14 +6816,14 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -6890,16 +6842,16 @@
         <v>80</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="M40" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="N40" t="s" s="2">
         <v>117</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>119</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6937,19 +6889,19 @@
         <v>80</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="AC40" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE40" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF40" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="AD40" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE40" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="AF40" t="s" s="2">
-        <v>123</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>81</v>
@@ -6958,10 +6910,10 @@
         <v>82</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>80</v>
@@ -6970,7 +6922,7 @@
         <v>80</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>80</v>
@@ -6987,14 +6939,14 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -7013,19 +6965,19 @@
         <v>94</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>80</v>
@@ -7074,7 +7026,7 @@
         <v>80</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>81</v>
@@ -7083,10 +7035,10 @@
         <v>82</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>80</v>
@@ -7095,7 +7047,7 @@
         <v>80</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>107</v>
+        <v>192</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>80</v>
@@ -7112,10 +7064,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7138,17 +7090,15 @@
         <v>94</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>384</v>
-      </c>
+        <v>377</v>
+      </c>
+      <c r="N42" s="2"/>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>80</v>
@@ -7197,7 +7147,7 @@
         <v>80</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>93</v>
@@ -7206,39 +7156,39 @@
         <v>93</v>
       </c>
       <c r="AI42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AJ42" t="s" s="2">
-        <v>385</v>
-      </c>
       <c r="AK42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP42" t="s" s="2">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="AQ42" t="s" s="2">
-        <v>389</v>
+        <v>381</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7261,13 +7211,13 @@
         <v>80</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="M43" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>111</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -7318,7 +7268,7 @@
         <v>80</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>81</v>
@@ -7339,7 +7289,7 @@
         <v>80</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>80</v>
@@ -7356,14 +7306,14 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -7382,16 +7332,16 @@
         <v>80</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="L44" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="M44" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="N44" t="s" s="2">
         <v>117</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>119</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7429,19 +7379,19 @@
         <v>80</v>
       </c>
       <c r="AB44" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE44" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="AC44" t="s" s="2">
+      <c r="AF44" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="AD44" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE44" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="AF44" t="s" s="2">
-        <v>123</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>81</v>
@@ -7450,10 +7400,10 @@
         <v>82</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>80</v>
@@ -7462,7 +7412,7 @@
         <v>80</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>80</v>
@@ -7479,10 +7429,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7505,19 +7455,17 @@
         <v>94</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>395</v>
-      </c>
+        <v>386</v>
+      </c>
+      <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>80</v>
@@ -7530,7 +7478,7 @@
         <v>80</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="U45" t="s" s="2">
         <v>80</v>
@@ -7542,13 +7490,13 @@
         <v>80</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>80</v>
@@ -7566,7 +7514,7 @@
         <v>80</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>81</v>
@@ -7575,11 +7523,11 @@
         <v>93</v>
       </c>
       <c r="AI45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AJ45" t="s" s="2">
-        <v>106</v>
-      </c>
       <c r="AK45" t="s" s="2">
         <v>80</v>
       </c>
@@ -7587,7 +7535,7 @@
         <v>80</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>80</v>
@@ -7596,7 +7544,7 @@
         <v>80</v>
       </c>
       <c r="AP45" t="s" s="2">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="AQ45" t="s" s="2">
         <v>80</v>
@@ -7604,10 +7552,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7630,19 +7578,17 @@
         <v>94</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>395</v>
-      </c>
+        <v>396</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>80</v>
@@ -7655,7 +7601,7 @@
         <v>80</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="U46" t="s" s="2">
         <v>80</v>
@@ -7667,13 +7613,13 @@
         <v>80</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>80</v>
@@ -7691,7 +7637,7 @@
         <v>80</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>81</v>
@@ -7700,11 +7646,11 @@
         <v>93</v>
       </c>
       <c r="AI46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AJ46" t="s" s="2">
-        <v>106</v>
-      </c>
       <c r="AK46" t="s" s="2">
         <v>80</v>
       </c>
@@ -7712,7 +7658,7 @@
         <v>80</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>80</v>
@@ -7729,10 +7675,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7755,19 +7701,19 @@
         <v>80</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>80</v>
@@ -7816,7 +7762,7 @@
         <v>80</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>81</v>
@@ -7825,11 +7771,11 @@
         <v>93</v>
       </c>
       <c r="AI47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AJ47" t="s" s="2">
-        <v>106</v>
-      </c>
       <c r="AK47" t="s" s="2">
         <v>80</v>
       </c>
@@ -7837,7 +7783,7 @@
         <v>80</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>80</v>
@@ -7846,7 +7792,7 @@
         <v>80</v>
       </c>
       <c r="AP47" t="s" s="2">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="AQ47" t="s" s="2">
         <v>80</v>
@@ -7854,10 +7800,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7880,19 +7826,19 @@
         <v>94</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>80</v>
@@ -7905,7 +7851,7 @@
         <v>80</v>
       </c>
       <c r="T48" t="s" s="2">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="U48" t="s" s="2">
         <v>80</v>
@@ -7941,7 +7887,7 @@
         <v>80</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>81</v>
@@ -7950,11 +7896,11 @@
         <v>93</v>
       </c>
       <c r="AI48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AJ48" t="s" s="2">
-        <v>106</v>
-      </c>
       <c r="AK48" t="s" s="2">
         <v>80</v>
       </c>
@@ -7962,7 +7908,7 @@
         <v>80</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>80</v>
@@ -7971,7 +7917,7 @@
         <v>80</v>
       </c>
       <c r="AP48" t="s" s="2">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="AQ48" t="s" s="2">
         <v>80</v>
@@ -7979,10 +7925,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8005,19 +7951,19 @@
         <v>94</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>80</v>
@@ -8066,7 +8012,7 @@
         <v>80</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>81</v>
@@ -8075,11 +8021,11 @@
         <v>93</v>
       </c>
       <c r="AI49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AJ49" t="s" s="2">
-        <v>106</v>
-      </c>
       <c r="AK49" t="s" s="2">
         <v>80</v>
       </c>
@@ -8087,7 +8033,7 @@
         <v>80</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>80</v>
@@ -8104,10 +8050,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8130,19 +8076,19 @@
         <v>94</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>80</v>
@@ -8191,7 +8137,7 @@
         <v>80</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>81</v>
@@ -8200,11 +8146,11 @@
         <v>93</v>
       </c>
       <c r="AI50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AJ50" t="s" s="2">
-        <v>106</v>
-      </c>
       <c r="AK50" t="s" s="2">
         <v>80</v>
       </c>
@@ -8212,7 +8158,7 @@
         <v>80</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>80</v>
@@ -8229,10 +8175,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8255,19 +8201,17 @@
         <v>94</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>395</v>
-      </c>
+        <v>437</v>
+      </c>
+      <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>80</v>
@@ -8280,7 +8224,7 @@
         <v>80</v>
       </c>
       <c r="T51" t="s" s="2">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="U51" t="s" s="2">
         <v>80</v>
@@ -8316,7 +8260,7 @@
         <v>80</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>81</v>
@@ -8325,11 +8269,11 @@
         <v>93</v>
       </c>
       <c r="AI51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AJ51" t="s" s="2">
-        <v>106</v>
-      </c>
       <c r="AK51" t="s" s="2">
         <v>80</v>
       </c>
@@ -8337,7 +8281,7 @@
         <v>80</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>80</v>
@@ -8354,10 +8298,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8380,17 +8324,17 @@
         <v>94</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>80</v>
@@ -8439,7 +8383,7 @@
         <v>80</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>81</v>
@@ -8448,11 +8392,11 @@
         <v>93</v>
       </c>
       <c r="AI52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AJ52" t="s" s="2">
-        <v>106</v>
-      </c>
       <c r="AK52" t="s" s="2">
         <v>80</v>
       </c>
@@ -8460,7 +8404,7 @@
         <v>80</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>80</v>
@@ -8477,10 +8421,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8503,16 +8447,16 @@
         <v>94</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -8538,11 +8482,11 @@
         <v>80</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="Y53" s="2"/>
       <c r="Z53" t="s" s="2">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>80</v>
@@ -8560,7 +8504,7 @@
         <v>80</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>81</v>
@@ -8569,39 +8513,39 @@
         <v>93</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP53" t="s" s="2">
-        <v>158</v>
+        <v>80</v>
       </c>
       <c r="AQ53" t="s" s="2">
-        <v>465</v>
+        <v>456</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8624,16 +8568,16 @@
         <v>94</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -8683,7 +8627,7 @@
         <v>80</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>81</v>
@@ -8692,11 +8636,11 @@
         <v>93</v>
       </c>
       <c r="AI54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AJ54" t="s" s="2">
-        <v>106</v>
-      </c>
       <c r="AK54" t="s" s="2">
         <v>80</v>
       </c>
@@ -8704,7 +8648,7 @@
         <v>80</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>80</v>
@@ -8721,10 +8665,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8747,13 +8691,13 @@
         <v>80</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="M55" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>111</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8804,7 +8748,7 @@
         <v>80</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>81</v>
@@ -8825,7 +8769,7 @@
         <v>80</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>80</v>
@@ -8842,14 +8786,14 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -8868,16 +8812,16 @@
         <v>80</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="M56" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="N56" t="s" s="2">
         <v>117</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>119</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8915,19 +8859,19 @@
         <v>80</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="AC56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF56" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="AD56" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE56" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="AF56" t="s" s="2">
-        <v>123</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>81</v>
@@ -8936,10 +8880,10 @@
         <v>82</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>80</v>
@@ -8948,7 +8892,7 @@
         <v>80</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>80</v>
@@ -8965,14 +8909,14 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -8991,19 +8935,19 @@
         <v>94</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>80</v>
@@ -9052,7 +8996,7 @@
         <v>80</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>81</v>
@@ -9061,10 +9005,10 @@
         <v>82</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>80</v>
@@ -9073,7 +9017,7 @@
         <v>80</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>107</v>
+        <v>192</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>80</v>
@@ -9090,10 +9034,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9116,17 +9060,15 @@
         <v>80</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>274</v>
-      </c>
+        <v>468</v>
+      </c>
+      <c r="N58" s="2"/>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>80</v>
@@ -9175,7 +9117,7 @@
         <v>80</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>81</v>
@@ -9184,25 +9126,25 @@
         <v>82</v>
       </c>
       <c r="AI58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AJ58" t="s" s="2">
-        <v>275</v>
-      </c>
       <c r="AK58" t="s" s="2">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="AP58" t="s" s="2">
         <v>80</v>
@@ -9213,10 +9155,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9239,16 +9181,16 @@
         <v>80</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>485</v>
+        <v>476</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -9274,13 +9216,13 @@
         <v>80</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>80</v>
@@ -9298,7 +9240,7 @@
         <v>80</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>81</v>
@@ -9307,19 +9249,19 @@
         <v>82</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>80</v>
@@ -9328,18 +9270,18 @@
         <v>80</v>
       </c>
       <c r="AP59" t="s" s="2">
-        <v>268</v>
+        <v>80</v>
       </c>
       <c r="AQ59" t="s" s="2">
-        <v>491</v>
+        <v>482</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9362,17 +9304,15 @@
         <v>94</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>496</v>
-      </c>
+        <v>486</v>
+      </c>
+      <c r="N60" s="2"/>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>80</v>
@@ -9421,7 +9361,7 @@
         <v>80</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>81</v>
@@ -9430,39 +9370,39 @@
         <v>93</v>
       </c>
       <c r="AI60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AJ60" t="s" s="2">
-        <v>497</v>
-      </c>
       <c r="AK60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>498</v>
+        <v>487</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>499</v>
+        <v>488</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>500</v>
+        <v>489</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP60" t="s" s="2">
-        <v>501</v>
+        <v>80</v>
       </c>
       <c r="AQ60" t="s" s="2">
-        <v>502</v>
+        <v>490</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>503</v>
+        <v>491</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>503</v>
+        <v>491</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9485,17 +9425,15 @@
         <v>80</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>504</v>
+        <v>492</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>506</v>
-      </c>
+        <v>493</v>
+      </c>
+      <c r="N61" s="2"/>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>80</v>
@@ -9520,11 +9458,11 @@
         <v>80</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="Y61" s="2"/>
       <c r="Z61" t="s" s="2">
-        <v>507</v>
+        <v>494</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>80</v>
@@ -9542,7 +9480,7 @@
         <v>80</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>503</v>
+        <v>491</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>81</v>
@@ -9551,39 +9489,39 @@
         <v>93</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>508</v>
+        <v>495</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>509</v>
+        <v>496</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>510</v>
+        <v>497</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>511</v>
+        <v>498</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP61" t="s" s="2">
-        <v>268</v>
+        <v>80</v>
       </c>
       <c r="AQ61" t="s" s="2">
-        <v>512</v>
+        <v>499</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>513</v>
+        <v>500</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>513</v>
+        <v>500</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9606,19 +9544,19 @@
         <v>80</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>515</v>
+        <v>502</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>516</v>
+        <v>503</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>517</v>
+        <v>504</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>80</v>
@@ -9643,11 +9581,11 @@
         <v>80</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="Y62" s="2"/>
       <c r="Z62" t="s" s="2">
-        <v>518</v>
+        <v>505</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>80</v>
@@ -9665,7 +9603,7 @@
         <v>80</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>513</v>
+        <v>500</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>81</v>
@@ -9674,39 +9612,39 @@
         <v>93</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>508</v>
+        <v>495</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>509</v>
+        <v>496</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>510</v>
+        <v>497</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>509</v>
+        <v>496</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP62" t="s" s="2">
-        <v>268</v>
+        <v>80</v>
       </c>
       <c r="AQ62" t="s" s="2">
-        <v>519</v>
+        <v>506</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>520</v>
+        <v>507</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>520</v>
+        <v>507</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9729,17 +9667,15 @@
         <v>80</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>521</v>
+        <v>508</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>274</v>
-      </c>
+        <v>509</v>
+      </c>
+      <c r="N63" s="2"/>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>80</v>
@@ -9788,7 +9724,7 @@
         <v>80</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>520</v>
+        <v>507</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>81</v>
@@ -9797,22 +9733,22 @@
         <v>93</v>
       </c>
       <c r="AI63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AJ63" t="s" s="2">
-        <v>275</v>
-      </c>
       <c r="AK63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>80</v>
@@ -9821,15 +9757,15 @@
         <v>80</v>
       </c>
       <c r="AQ63" t="s" s="2">
-        <v>523</v>
+        <v>510</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>524</v>
+        <v>511</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>524</v>
+        <v>511</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9852,16 +9788,16 @@
         <v>80</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>525</v>
+        <v>512</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>526</v>
+        <v>513</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>527</v>
+        <v>514</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>528</v>
+        <v>515</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -9911,7 +9847,7 @@
         <v>80</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>524</v>
+        <v>511</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>81</v>
@@ -9920,22 +9856,22 @@
         <v>82</v>
       </c>
       <c r="AI64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AJ64" t="s" s="2">
-        <v>275</v>
-      </c>
       <c r="AK64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>529</v>
+        <v>516</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>530</v>
+        <v>517</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>531</v>
+        <v>518</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>80</v>
@@ -9944,7 +9880,7 @@
         <v>80</v>
       </c>
       <c r="AQ64" t="s" s="2">
-        <v>532</v>
+        <v>519</v>
       </c>
     </row>
   </sheetData>

--- a/main/ig/StructureDefinition-tddui-documentreference.xlsx
+++ b/main/ig/StructureDefinition-tddui-documentreference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-03T16:19:25+00:00</t>
+    <t>2024-12-17T16:29:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-documentreference.xlsx
+++ b/main/ig/StructureDefinition-tddui-documentreference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-17T16:29:54+00:00</t>
+    <t>2024-12-17T16:40:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-documentreference.xlsx
+++ b/main/ig/StructureDefinition-tddui-documentreference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-17T16:40:19+00:00</t>
+    <t>2024-12-20T14:27:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-documentreference.xlsx
+++ b/main/ig/StructureDefinition-tddui-documentreference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-20T14:27:39+00:00</t>
+    <t>2025-01-13T12:56:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-documentreference.xlsx
+++ b/main/ig/StructureDefinition-tddui-documentreference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-13T12:56:04+00:00</t>
+    <t>2025-01-16T11:13:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-documentreference.xlsx
+++ b/main/ig/StructureDefinition-tddui-documentreference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-16T11:13:06+00:00</t>
+    <t>2025-01-20T08:56:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-documentreference.xlsx
+++ b/main/ig/StructureDefinition-tddui-documentreference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-20T08:56:25+00:00</t>
+    <t>2025-01-24T10:56:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-documentreference.xlsx
+++ b/main/ig/StructureDefinition-tddui-documentreference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-24T10:56:25+00:00</t>
+    <t>2025-01-31T09:33:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-documentreference.xlsx
+++ b/main/ig/StructureDefinition-tddui-documentreference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-31T09:33:55+00:00</t>
+    <t>2025-01-31T09:56:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-documentreference.xlsx
+++ b/main/ig/StructureDefinition-tddui-documentreference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-31T09:56:25+00:00</t>
+    <t>2025-01-31T11:34:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-documentreference.xlsx
+++ b/main/ig/StructureDefinition-tddui-documentreference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-31T11:34:31+00:00</t>
+    <t>2025-01-31T14:09:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-documentreference.xlsx
+++ b/main/ig/StructureDefinition-tddui-documentreference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-31T14:09:56+00:00</t>
+    <t>2025-01-31T14:17:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-documentreference.xlsx
+++ b/main/ig/StructureDefinition-tddui-documentreference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-31T14:17:20+00:00</t>
+    <t>2025-01-31T14:23:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-documentreference.xlsx
+++ b/main/ig/StructureDefinition-tddui-documentreference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-31T14:23:20+00:00</t>
+    <t>2025-01-31T14:32:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-documentreference.xlsx
+++ b/main/ig/StructureDefinition-tddui-documentreference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-31T14:32:14+00:00</t>
+    <t>2025-01-31T14:45:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-documentreference.xlsx
+++ b/main/ig/StructureDefinition-tddui-documentreference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-31T14:45:45+00:00</t>
+    <t>2025-02-05T13:48:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-documentreference.xlsx
+++ b/main/ig/StructureDefinition-tddui-documentreference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-05T13:48:42+00:00</t>
+    <t>2025-02-06T11:04:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-documentreference.xlsx
+++ b/main/ig/StructureDefinition-tddui-documentreference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-06T11:04:53+00:00</t>
+    <t>2025-02-12T14:10:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-documentreference.xlsx
+++ b/main/ig/StructureDefinition-tddui-documentreference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-12T14:10:39+00:00</t>
+    <t>2025-02-17T08:44:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-documentreference.xlsx
+++ b/main/ig/StructureDefinition-tddui-documentreference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-17T08:44:40+00:00</t>
+    <t>2025-02-17T10:37:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-tddui-documentreference.xlsx
+++ b/main/ig/StructureDefinition-tddui-documentreference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-17T10:37:22+00:00</t>
+    <t>2025-02-19T16:44:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
